--- a/gym_back/files/01_2025.xlsx
+++ b/gym_back/files/01_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC88"/>
+  <dimension ref="A1:CF88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,400 +436,415 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.65</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.64</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.63</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.62</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.61</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.60</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.59</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.58</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.57</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.56</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.55</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.54</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.53</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.52</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.51</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.50</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.49</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.48</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.47</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.46</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.45</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.44</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.43</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.42</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.41</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.40</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.39</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.38</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.37</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.36</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.35</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.34</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.33</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.32</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.31</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.30</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.29</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.28</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.27</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.26</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.25</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.24</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.23</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.22</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.21</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.20</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.19</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.18</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.17</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.16</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.15</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>месяц</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Неделя</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Тренировка</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>Повторы/% от ПМ</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>Мышечные группы</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Упражнения</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Количество подходов/повторений</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Рабочий вес</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Комментарии</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>1 подход</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>2 подход</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>3 подход</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>4 подход</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>5 подход</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>6 подход</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>Отдых между подходами</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>GYM</t>
         </is>
@@ -1028,71 +1043,80 @@
       <c r="BL2" t="n">
         <v>0</v>
       </c>
-      <c r="BM2" t="inlineStr">
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN2" t="n">
+      <c r="BQ2" t="n">
         <v>1</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BR2" t="n">
         <v>1</v>
       </c>
-      <c r="BP2" t="inlineStr">
+      <c r="BS2" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ2" t="inlineStr">
+      <c r="BT2" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR2" t="inlineStr">
+      <c r="BU2" t="inlineStr">
         <is>
           <t>Разгибание голени в тренажере сидя</t>
         </is>
       </c>
-      <c r="BS2" t="inlineStr">
+      <c r="BV2" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT2" t="inlineStr">
+      <c r="BW2" t="inlineStr">
         <is>
           <t>35 кг с повышением</t>
         </is>
       </c>
-      <c r="BU2" t="inlineStr">
+      <c r="BX2" t="inlineStr">
         <is>
           <t>Без рывков!</t>
         </is>
       </c>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="inlineStr"/>
-      <c r="BY2" t="inlineStr">
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ2" t="inlineStr">
+      <c r="CC2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA2" t="inlineStr">
+      <c r="CD2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB2" t="inlineStr">
+      <c r="CE2" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1287,10 +1311,8 @@
       <c r="BL3" t="n">
         <v>1</v>
       </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>Январь</t>
-        </is>
+      <c r="BM3" t="n">
+        <v>1</v>
       </c>
       <c r="BN3" t="n">
         <v>1</v>
@@ -1300,46 +1322,57 @@
       </c>
       <c r="BP3" t="inlineStr">
         <is>
+          <t>Январь</t>
+        </is>
+      </c>
+      <c r="BQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr">
+      <c r="BT3" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR3" t="inlineStr">
+      <c r="BU3" t="inlineStr">
         <is>
           <t>Приседания со штангой на спине</t>
         </is>
       </c>
-      <c r="BS3" t="inlineStr">
+      <c r="BV3" t="inlineStr">
         <is>
           <t>6х4</t>
         </is>
       </c>
-      <c r="BT3" t="inlineStr">
+      <c r="BW3" t="inlineStr">
         <is>
           <t>40-45 кг с повышением</t>
         </is>
       </c>
-      <c r="BU3" t="inlineStr">
+      <c r="BX3" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="inlineStr">
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr">
         <is>
           <t>120 секунд</t>
         </is>
       </c>
-      <c r="CC3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1534,67 +1567,76 @@
       <c r="BL4" t="n">
         <v>2</v>
       </c>
-      <c r="BM4" t="inlineStr">
+      <c r="BM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP4" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN4" t="n">
+      <c r="BQ4" t="n">
         <v>1</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BR4" t="n">
         <v>1</v>
       </c>
-      <c r="BP4" t="inlineStr">
+      <c r="BS4" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr">
+      <c r="BT4" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR4" t="inlineStr">
+      <c r="BU4" t="inlineStr">
         <is>
           <t>Жим платформы ногами лежа</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
+      <c r="BV4" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT4" t="inlineStr">
+      <c r="BW4" t="inlineStr">
         <is>
           <t>85-100 кг с повышением</t>
         </is>
       </c>
-      <c r="BU4" t="inlineStr">
+      <c r="BX4" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV4" t="inlineStr"/>
-      <c r="BW4" t="inlineStr"/>
-      <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
-      <c r="BZ4" t="inlineStr">
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA4" t="inlineStr">
+      <c r="CD4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB4" t="inlineStr">
+      <c r="CE4" t="inlineStr">
         <is>
           <t>90-120 секунд</t>
         </is>
       </c>
-      <c r="CC4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1789,63 +1831,72 @@
       <c r="BL5" t="n">
         <v>3</v>
       </c>
-      <c r="BM5" t="inlineStr">
+      <c r="BM5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP5" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN5" t="n">
+      <c r="BQ5" t="n">
         <v>1</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BR5" t="n">
         <v>1</v>
       </c>
-      <c r="BP5" t="inlineStr">
+      <c r="BS5" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr">
+      <c r="BT5" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR5" t="inlineStr">
+      <c r="BU5" t="inlineStr">
         <is>
           <t>Жиш штанги лежа на горизонтальной скамье</t>
         </is>
       </c>
-      <c r="BS5" t="inlineStr">
+      <c r="BV5" t="inlineStr">
         <is>
           <t>5х4</t>
         </is>
       </c>
-      <c r="BT5" t="inlineStr">
+      <c r="BW5" t="inlineStr">
         <is>
           <t>50 кг с повышением</t>
         </is>
       </c>
-      <c r="BU5" t="inlineStr">
+      <c r="BX5" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="inlineStr"/>
-      <c r="BX5" t="inlineStr"/>
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
-      <c r="CA5" t="inlineStr">
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB5" t="inlineStr">
+      <c r="CE5" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2040,67 +2091,76 @@
       <c r="BL6" t="n">
         <v>4</v>
       </c>
-      <c r="BM6" t="inlineStr">
+      <c r="BM6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP6" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN6" t="n">
+      <c r="BQ6" t="n">
         <v>1</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BR6" t="n">
         <v>1</v>
       </c>
-      <c r="BP6" t="inlineStr">
+      <c r="BS6" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ6" t="inlineStr">
+      <c r="BT6" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR6" t="inlineStr">
+      <c r="BU6" t="inlineStr">
         <is>
           <t>Жим гантелями лежа на наклонной скамье 30 градусов</t>
         </is>
       </c>
-      <c r="BS6" t="inlineStr">
+      <c r="BV6" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT6" t="inlineStr">
+      <c r="BW6" t="inlineStr">
         <is>
           <t>15 кг с повышением</t>
         </is>
       </c>
-      <c r="BU6" t="inlineStr">
+      <c r="BX6" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="inlineStr"/>
-      <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
-      <c r="BZ6" t="inlineStr">
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA6" t="inlineStr">
+      <c r="CD6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB6" t="inlineStr">
+      <c r="CE6" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2295,71 +2355,80 @@
       <c r="BL7" t="n">
         <v>5</v>
       </c>
-      <c r="BM7" t="inlineStr">
+      <c r="BM7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP7" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN7" t="n">
+      <c r="BQ7" t="n">
         <v>1</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BR7" t="n">
         <v>1</v>
       </c>
-      <c r="BP7" t="inlineStr">
+      <c r="BS7" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ7" t="inlineStr">
+      <c r="BT7" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR7" t="inlineStr">
+      <c r="BU7" t="inlineStr">
         <is>
           <t>Отжимания от пола</t>
         </is>
       </c>
-      <c r="BS7" t="inlineStr">
+      <c r="BV7" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT7" t="inlineStr">
+      <c r="BW7" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU7" t="inlineStr">
+      <c r="BX7" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="BV7" t="inlineStr"/>
-      <c r="BW7" t="inlineStr"/>
-      <c r="BX7" t="inlineStr"/>
-      <c r="BY7" t="inlineStr">
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ7" t="inlineStr">
+      <c r="CC7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA7" t="inlineStr">
+      <c r="CD7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB7" t="inlineStr">
+      <c r="CE7" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2554,83 +2623,92 @@
       <c r="BL8" t="n">
         <v>6</v>
       </c>
-      <c r="BM8" t="inlineStr">
+      <c r="BM8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP8" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN8" t="n">
+      <c r="BQ8" t="n">
         <v>1</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BR8" t="n">
         <v>1</v>
       </c>
-      <c r="BP8" t="inlineStr">
+      <c r="BS8" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ8" t="inlineStr">
+      <c r="BT8" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR8" t="inlineStr">
+      <c r="BU8" t="inlineStr">
         <is>
           <t>Прямые скручивания</t>
         </is>
       </c>
-      <c r="BS8" t="inlineStr">
+      <c r="BV8" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="BT8" t="inlineStr">
+      <c r="BW8" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU8" t="inlineStr">
+      <c r="BX8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BV8" t="inlineStr">
+      <c r="BY8" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BW8" t="inlineStr">
+      <c r="BZ8" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BX8" t="inlineStr">
+      <c r="CA8" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BY8" t="inlineStr">
+      <c r="CB8" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BZ8" t="inlineStr">
+      <c r="CC8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA8" t="inlineStr">
+      <c r="CD8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB8" t="inlineStr">
+      <c r="CE8" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="CC8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2825,77 +2903,86 @@
       <c r="BL9" t="n">
         <v>7</v>
       </c>
-      <c r="BM9" t="inlineStr">
+      <c r="BM9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP9" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN9" t="n">
+      <c r="BQ9" t="n">
         <v>1</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BR9" t="n">
         <v>2</v>
       </c>
-      <c r="BP9" t="inlineStr">
+      <c r="BS9" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ9" t="inlineStr">
+      <c r="BT9" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR9" t="inlineStr">
+      <c r="BU9" t="inlineStr">
         <is>
           <t>Подтягивания (с резиной/без)</t>
         </is>
       </c>
-      <c r="BS9" t="inlineStr">
+      <c r="BV9" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT9" t="inlineStr">
+      <c r="BW9" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU9" t="inlineStr">
+      <c r="BX9" t="inlineStr">
         <is>
           <t>Средний хват</t>
         </is>
       </c>
-      <c r="BV9" t="n">
+      <c r="BY9" t="n">
         <v>12</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="BZ9" t="n">
         <v>12</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="CA9" t="n">
         <v>10</v>
       </c>
-      <c r="BY9" t="inlineStr">
+      <c r="CB9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ9" t="inlineStr">
+      <c r="CC9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA9" t="inlineStr">
+      <c r="CD9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB9" t="inlineStr">
+      <c r="CE9" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -3090,55 +3177,55 @@
       <c r="BL10" t="n">
         <v>8</v>
       </c>
-      <c r="BM10" t="inlineStr">
+      <c r="BM10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP10" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN10" t="n">
+      <c r="BQ10" t="n">
         <v>1</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BR10" t="n">
         <v>2</v>
       </c>
-      <c r="BP10" t="inlineStr">
+      <c r="BS10" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ10" t="inlineStr">
+      <c r="BT10" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR10" t="inlineStr">
+      <c r="BU10" t="inlineStr">
         <is>
           <t>Тяга штанги к поясу в наклоне стоя</t>
         </is>
       </c>
-      <c r="BS10" t="inlineStr">
+      <c r="BV10" t="inlineStr">
         <is>
           <t>6х4</t>
         </is>
       </c>
-      <c r="BT10" t="inlineStr">
+      <c r="BW10" t="inlineStr">
         <is>
           <t>40-45 кг с повышением</t>
         </is>
       </c>
-      <c r="BU10" t="inlineStr">
+      <c r="BX10" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
-      </c>
-      <c r="BV10" t="n">
-        <v>50</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>50</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>50</v>
       </c>
       <c r="BY10" t="n">
         <v>50</v>
@@ -3149,12 +3236,21 @@
       <c r="CA10" t="n">
         <v>50</v>
       </c>
-      <c r="CB10" t="inlineStr">
+      <c r="CB10" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE10" t="inlineStr">
         <is>
           <t>90-120 секунд</t>
         </is>
       </c>
-      <c r="CC10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -3349,75 +3445,84 @@
       <c r="BL11" t="n">
         <v>9</v>
       </c>
-      <c r="BM11" t="inlineStr">
+      <c r="BM11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP11" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN11" t="n">
+      <c r="BQ11" t="n">
         <v>1</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BR11" t="n">
         <v>2</v>
       </c>
-      <c r="BP11" t="inlineStr">
+      <c r="BS11" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ11" t="inlineStr">
+      <c r="BT11" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR11" t="inlineStr">
+      <c r="BU11" t="inlineStr">
         <is>
           <t>Горизонтальная рычажная тяга (узко)</t>
         </is>
       </c>
-      <c r="BS11" t="inlineStr">
+      <c r="BV11" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT11" t="inlineStr">
+      <c r="BW11" t="inlineStr">
         <is>
           <t>20-25 кг с повышением</t>
         </is>
       </c>
-      <c r="BU11" t="inlineStr">
+      <c r="BX11" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
-      </c>
-      <c r="BV11" t="n">
-        <v>20</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>20</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>20</v>
       </c>
       <c r="BY11" t="n">
         <v>20</v>
       </c>
-      <c r="BZ11" t="inlineStr">
+      <c r="BZ11" t="n">
+        <v>20</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>20</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>20</v>
+      </c>
+      <c r="CC11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA11" t="inlineStr">
+      <c r="CD11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB11" t="inlineStr">
+      <c r="CE11" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -3612,75 +3717,84 @@
       <c r="BL12" t="n">
         <v>10</v>
       </c>
-      <c r="BM12" t="inlineStr">
+      <c r="BM12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP12" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN12" t="n">
+      <c r="BQ12" t="n">
         <v>1</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BR12" t="n">
         <v>2</v>
       </c>
-      <c r="BP12" t="inlineStr">
+      <c r="BS12" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ12" t="inlineStr">
+      <c r="BT12" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR12" t="inlineStr">
+      <c r="BU12" t="inlineStr">
         <is>
           <t>Вертикальная тяга верхнего блока к груди узким хватом в блочном тренажере сидя</t>
         </is>
       </c>
-      <c r="BS12" t="inlineStr">
+      <c r="BV12" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT12" t="inlineStr">
+      <c r="BW12" t="inlineStr">
         <is>
           <t>7-8 плиток с повышением</t>
         </is>
       </c>
-      <c r="BU12" t="inlineStr">
+      <c r="BX12" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
-      </c>
-      <c r="BV12" t="n">
-        <v>8</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>8</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>8</v>
       </c>
       <c r="BY12" t="n">
         <v>8</v>
       </c>
-      <c r="BZ12" t="inlineStr">
+      <c r="BZ12" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>8</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA12" t="inlineStr">
+      <c r="CD12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB12" t="inlineStr">
+      <c r="CE12" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -3875,55 +3989,55 @@
       <c r="BL13" t="n">
         <v>11</v>
       </c>
-      <c r="BM13" t="inlineStr">
+      <c r="BM13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BP13" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN13" t="n">
+      <c r="BQ13" t="n">
         <v>1</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BR13" t="n">
         <v>2</v>
       </c>
-      <c r="BP13" t="inlineStr">
+      <c r="BS13" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ13" t="inlineStr">
+      <c r="BT13" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR13" t="inlineStr">
+      <c r="BU13" t="inlineStr">
         <is>
           <t>Отжимания (брусья)</t>
         </is>
       </c>
-      <c r="BS13" t="inlineStr">
+      <c r="BV13" t="inlineStr">
         <is>
           <t>5х4</t>
         </is>
       </c>
-      <c r="BT13" t="inlineStr">
+      <c r="BW13" t="inlineStr">
         <is>
           <t>10-15 кг с повышением</t>
         </is>
       </c>
-      <c r="BU13" t="inlineStr">
+      <c r="BX13" t="inlineStr">
         <is>
           <t>Контролируй наклон туловища и локти</t>
         </is>
-      </c>
-      <c r="BV13" t="n">
-        <v>12</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>12</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>12</v>
       </c>
       <c r="BY13" t="n">
         <v>12</v>
@@ -3931,17 +4045,26 @@
       <c r="BZ13" t="n">
         <v>12</v>
       </c>
-      <c r="CA13" t="inlineStr">
+      <c r="CA13" t="n">
+        <v>12</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>12</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="CD13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB13" t="inlineStr">
+      <c r="CE13" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -4136,67 +4259,76 @@
       <c r="BL14" t="n">
         <v>12</v>
       </c>
-      <c r="BM14" t="inlineStr">
+      <c r="BM14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BP14" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN14" t="n">
+      <c r="BQ14" t="n">
         <v>1</v>
       </c>
-      <c r="BO14" t="n">
+      <c r="BR14" t="n">
         <v>2</v>
       </c>
-      <c r="BP14" t="inlineStr">
+      <c r="BS14" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ14" t="inlineStr">
+      <c r="BT14" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR14" t="inlineStr">
+      <c r="BU14" t="inlineStr">
         <is>
           <t>Сгибание со штангой на бицепс стоя</t>
         </is>
       </c>
-      <c r="BS14" t="inlineStr">
+      <c r="BV14" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT14" t="inlineStr">
+      <c r="BW14" t="inlineStr">
         <is>
           <t>20-25 кг</t>
         </is>
       </c>
-      <c r="BU14" t="inlineStr">
+      <c r="BX14" t="inlineStr">
         <is>
           <t>Контроль локтей</t>
         </is>
       </c>
-      <c r="BV14" t="inlineStr"/>
-      <c r="BW14" t="inlineStr"/>
-      <c r="BX14" t="inlineStr"/>
       <c r="BY14" t="inlineStr"/>
-      <c r="BZ14" t="inlineStr">
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA14" t="inlineStr">
+      <c r="CD14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB14" t="inlineStr">
+      <c r="CE14" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -4391,83 +4523,92 @@
       <c r="BL15" t="n">
         <v>13</v>
       </c>
-      <c r="BM15" t="inlineStr">
+      <c r="BM15" t="n">
+        <v>13</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>13</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="BP15" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN15" t="n">
+      <c r="BQ15" t="n">
         <v>1</v>
       </c>
-      <c r="BO15" t="n">
+      <c r="BR15" t="n">
         <v>2</v>
       </c>
-      <c r="BP15" t="inlineStr">
+      <c r="BS15" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ15" t="inlineStr">
+      <c r="BT15" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR15" t="inlineStr">
+      <c r="BU15" t="inlineStr">
         <is>
           <t>Прямые скручивания</t>
         </is>
       </c>
-      <c r="BS15" t="inlineStr">
+      <c r="BV15" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="BT15" t="inlineStr">
+      <c r="BW15" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU15" t="inlineStr">
+      <c r="BX15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BV15" t="inlineStr">
+      <c r="BY15" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BW15" t="inlineStr">
+      <c r="BZ15" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BX15" t="inlineStr">
+      <c r="CA15" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BY15" t="inlineStr">
+      <c r="CB15" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BZ15" t="inlineStr">
+      <c r="CC15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA15" t="inlineStr">
+      <c r="CD15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB15" t="inlineStr">
+      <c r="CE15" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="CC15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -4662,83 +4803,92 @@
       <c r="BL16" t="n">
         <v>14</v>
       </c>
-      <c r="BM16" t="inlineStr">
+      <c r="BM16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BP16" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN16" t="n">
+      <c r="BQ16" t="n">
         <v>1</v>
       </c>
-      <c r="BO16" t="n">
+      <c r="BR16" t="n">
         <v>3</v>
       </c>
-      <c r="BP16" t="inlineStr">
+      <c r="BS16" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ16" t="inlineStr">
+      <c r="BT16" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR16" t="inlineStr">
+      <c r="BU16" t="inlineStr">
         <is>
           <t>Сгибание голени в тренажере лежа</t>
         </is>
       </c>
-      <c r="BS16" t="inlineStr">
+      <c r="BV16" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT16" t="inlineStr">
+      <c r="BW16" t="inlineStr">
         <is>
           <t>30-35 кг с повышением</t>
         </is>
       </c>
-      <c r="BU16" t="inlineStr">
+      <c r="BX16" t="inlineStr">
         <is>
           <t>Без рывков!</t>
         </is>
       </c>
-      <c r="BV16" t="inlineStr">
+      <c r="BY16" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="BW16" t="inlineStr">
+      <c r="BZ16" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="BX16" t="inlineStr">
+      <c r="CA16" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="BY16" t="inlineStr">
+      <c r="CB16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ16" t="inlineStr">
+      <c r="CC16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA16" t="inlineStr">
+      <c r="CD16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB16" t="inlineStr">
+      <c r="CE16" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -4933,79 +5083,88 @@
       <c r="BL17" t="n">
         <v>15</v>
       </c>
-      <c r="BM17" t="inlineStr">
+      <c r="BM17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP17" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN17" t="n">
+      <c r="BQ17" t="n">
         <v>1</v>
       </c>
-      <c r="BO17" t="n">
+      <c r="BR17" t="n">
         <v>3</v>
       </c>
-      <c r="BP17" t="inlineStr">
+      <c r="BS17" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ17" t="inlineStr">
+      <c r="BT17" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR17" t="inlineStr">
+      <c r="BU17" t="inlineStr">
         <is>
           <t>Тяга штанги на согнутых ногах стоя (ягодицы)</t>
         </is>
       </c>
-      <c r="BS17" t="inlineStr">
+      <c r="BV17" t="inlineStr">
         <is>
           <t>6х4</t>
         </is>
       </c>
-      <c r="BT17" t="inlineStr">
+      <c r="BW17" t="inlineStr">
         <is>
           <t>50-60 кг с повышением</t>
         </is>
       </c>
-      <c r="BU17" t="inlineStr">
+      <c r="BX17" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV17" t="inlineStr">
+      <c r="BY17" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="BW17" t="inlineStr">
+      <c r="BZ17" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="BX17" t="inlineStr">
+      <c r="CA17" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="BY17" t="inlineStr">
+      <c r="CB17" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="BZ17" t="inlineStr">
+      <c r="CC17" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="CA17" t="inlineStr"/>
-      <c r="CB17" t="inlineStr">
+      <c r="CD17" t="inlineStr"/>
+      <c r="CE17" t="inlineStr">
         <is>
           <t>120 секунд</t>
         </is>
       </c>
-      <c r="CC17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -5200,83 +5359,92 @@
       <c r="BL18" t="n">
         <v>16</v>
       </c>
-      <c r="BM18" t="inlineStr">
+      <c r="BM18" t="n">
+        <v>16</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>16</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>16</v>
+      </c>
+      <c r="BP18" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN18" t="n">
+      <c r="BQ18" t="n">
         <v>1</v>
       </c>
-      <c r="BO18" t="n">
+      <c r="BR18" t="n">
         <v>3</v>
       </c>
-      <c r="BP18" t="inlineStr">
+      <c r="BS18" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ18" t="inlineStr">
+      <c r="BT18" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR18" t="inlineStr">
+      <c r="BU18" t="inlineStr">
         <is>
           <t>Разгибание туловища (ягодицы)</t>
         </is>
       </c>
-      <c r="BS18" t="inlineStr">
+      <c r="BV18" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT18" t="inlineStr">
+      <c r="BW18" t="inlineStr">
         <is>
           <t>15 кг с повышением</t>
         </is>
       </c>
-      <c r="BU18" t="inlineStr">
+      <c r="BX18" t="inlineStr">
         <is>
           <t>Держи поясницу прогнутой/работай через таз/Опускай чуть ниже колена</t>
         </is>
       </c>
-      <c r="BV18" t="inlineStr">
+      <c r="BY18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="BW18" t="inlineStr">
+      <c r="BZ18" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="BX18" t="inlineStr">
+      <c r="CA18" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="BY18" t="inlineStr">
+      <c r="CB18" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="BZ18" t="inlineStr">
+      <c r="CC18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA18" t="inlineStr">
+      <c r="CD18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB18" t="inlineStr">
+      <c r="CE18" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -5471,83 +5639,92 @@
       <c r="BL19" t="n">
         <v>17</v>
       </c>
-      <c r="BM19" t="inlineStr">
+      <c r="BM19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BP19" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN19" t="n">
+      <c r="BQ19" t="n">
         <v>1</v>
       </c>
-      <c r="BO19" t="n">
+      <c r="BR19" t="n">
         <v>3</v>
       </c>
-      <c r="BP19" t="inlineStr">
+      <c r="BS19" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ19" t="inlineStr">
+      <c r="BT19" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR19" t="inlineStr">
+      <c r="BU19" t="inlineStr">
         <is>
           <t>Жим штанги лежа на наклонной скамье 30 градусов</t>
         </is>
       </c>
-      <c r="BS19" t="inlineStr">
+      <c r="BV19" t="inlineStr">
         <is>
           <t>5х4</t>
         </is>
       </c>
-      <c r="BT19" t="inlineStr">
+      <c r="BW19" t="inlineStr">
         <is>
           <t>45-50 кг с повышением</t>
         </is>
       </c>
-      <c r="BU19" t="inlineStr">
+      <c r="BX19" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV19" t="inlineStr">
+      <c r="BY19" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="BW19" t="inlineStr">
+      <c r="BZ19" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="BX19" t="inlineStr">
+      <c r="CA19" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="BY19" t="inlineStr">
+      <c r="CB19" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="BZ19" t="inlineStr">
+      <c r="CC19" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="CA19" t="inlineStr">
+      <c r="CD19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB19" t="inlineStr">
+      <c r="CE19" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -5742,83 +5919,92 @@
       <c r="BL20" t="n">
         <v>18</v>
       </c>
-      <c r="BM20" t="inlineStr">
+      <c r="BM20" t="n">
+        <v>18</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>18</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>18</v>
+      </c>
+      <c r="BP20" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN20" t="n">
+      <c r="BQ20" t="n">
         <v>1</v>
       </c>
-      <c r="BO20" t="n">
+      <c r="BR20" t="n">
         <v>3</v>
       </c>
-      <c r="BP20" t="inlineStr">
+      <c r="BS20" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ20" t="inlineStr">
+      <c r="BT20" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR20" t="inlineStr">
+      <c r="BU20" t="inlineStr">
         <is>
           <t>Жим гантелей лежа на горизонтальной скамье</t>
         </is>
       </c>
-      <c r="BS20" t="inlineStr">
+      <c r="BV20" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT20" t="inlineStr">
+      <c r="BW20" t="inlineStr">
         <is>
           <t>15 кг с повышением</t>
         </is>
       </c>
-      <c r="BU20" t="inlineStr">
+      <c r="BX20" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV20" t="inlineStr">
+      <c r="BY20" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="BW20" t="inlineStr">
+      <c r="BZ20" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="BX20" t="inlineStr">
+      <c r="CA20" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="BY20" t="inlineStr">
+      <c r="CB20" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="BZ20" t="inlineStr">
+      <c r="CC20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA20" t="inlineStr">
+      <c r="CD20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB20" t="inlineStr">
+      <c r="CE20" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC20" t="inlineStr"/>
+      <c r="CF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -6013,83 +6199,92 @@
       <c r="BL21" t="n">
         <v>19</v>
       </c>
-      <c r="BM21" t="inlineStr">
+      <c r="BM21" t="n">
+        <v>19</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>19</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>19</v>
+      </c>
+      <c r="BP21" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN21" t="n">
+      <c r="BQ21" t="n">
         <v>1</v>
       </c>
-      <c r="BO21" t="n">
+      <c r="BR21" t="n">
         <v>3</v>
       </c>
-      <c r="BP21" t="inlineStr">
+      <c r="BS21" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ21" t="inlineStr">
+      <c r="BT21" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR21" t="inlineStr">
+      <c r="BU21" t="inlineStr">
         <is>
           <t>Обратные отжимания от скамьи</t>
         </is>
       </c>
-      <c r="BS21" t="inlineStr">
+      <c r="BV21" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT21" t="inlineStr">
+      <c r="BW21" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU21" t="inlineStr">
+      <c r="BX21" t="inlineStr">
         <is>
           <t>Спиной к скамье, руки чуть шире плеч/Туловище перемещается вверх вниз, локти вдоль туловища</t>
         </is>
       </c>
-      <c r="BV21" t="inlineStr">
+      <c r="BY21" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="BW21" t="inlineStr">
+      <c r="BZ21" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="BX21" t="inlineStr">
+      <c r="CA21" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="BY21" t="inlineStr">
+      <c r="CB21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ21" t="inlineStr">
+      <c r="CC21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA21" t="inlineStr">
+      <c r="CD21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB21" t="inlineStr">
+      <c r="CE21" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC21" t="inlineStr"/>
+      <c r="CF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -6284,83 +6479,92 @@
       <c r="BL22" t="n">
         <v>20</v>
       </c>
-      <c r="BM22" t="inlineStr">
+      <c r="BM22" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>20</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>20</v>
+      </c>
+      <c r="BP22" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN22" t="n">
+      <c r="BQ22" t="n">
         <v>1</v>
       </c>
-      <c r="BO22" t="n">
+      <c r="BR22" t="n">
         <v>3</v>
       </c>
-      <c r="BP22" t="inlineStr">
+      <c r="BS22" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ22" t="inlineStr">
+      <c r="BT22" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR22" t="inlineStr">
+      <c r="BU22" t="inlineStr">
         <is>
           <t>Прямые скручивания</t>
         </is>
       </c>
-      <c r="BS22" t="inlineStr">
+      <c r="BV22" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="BT22" t="inlineStr">
+      <c r="BW22" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU22" t="inlineStr">
+      <c r="BX22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BV22" t="inlineStr">
+      <c r="BY22" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BW22" t="inlineStr">
+      <c r="BZ22" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BX22" t="inlineStr">
+      <c r="CA22" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BY22" t="inlineStr">
+      <c r="CB22" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BZ22" t="inlineStr">
+      <c r="CC22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA22" t="inlineStr">
+      <c r="CD22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB22" t="inlineStr">
+      <c r="CE22" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="CC22" t="inlineStr"/>
+      <c r="CF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -6555,87 +6759,96 @@
       <c r="BL23" t="n">
         <v>21</v>
       </c>
-      <c r="BM23" t="inlineStr">
+      <c r="BM23" t="n">
+        <v>21</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>21</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>21</v>
+      </c>
+      <c r="BP23" t="inlineStr">
         <is>
           <t>месяц</t>
         </is>
       </c>
-      <c r="BN23" t="inlineStr">
+      <c r="BQ23" t="inlineStr">
         <is>
           <t>Неделя</t>
         </is>
       </c>
-      <c r="BO23" t="inlineStr">
+      <c r="BR23" t="inlineStr">
         <is>
           <t>Тренировка</t>
         </is>
       </c>
-      <c r="BP23" t="inlineStr">
+      <c r="BS23" t="inlineStr">
         <is>
           <t>Повторы/% от ПМ</t>
         </is>
       </c>
-      <c r="BQ23" t="inlineStr">
+      <c r="BT23" t="inlineStr">
         <is>
           <t>Мышечные группы</t>
         </is>
       </c>
-      <c r="BR23" t="inlineStr">
+      <c r="BU23" t="inlineStr">
         <is>
           <t>Упражнения</t>
         </is>
       </c>
-      <c r="BS23" t="inlineStr">
+      <c r="BV23" t="inlineStr">
         <is>
           <t>Количество подходов/повторений</t>
         </is>
       </c>
-      <c r="BT23" t="inlineStr">
+      <c r="BW23" t="inlineStr">
         <is>
           <t>Рабочий вес</t>
         </is>
       </c>
-      <c r="BU23" t="inlineStr">
+      <c r="BX23" t="inlineStr">
         <is>
           <t>Комментарии</t>
         </is>
       </c>
-      <c r="BV23" t="inlineStr">
+      <c r="BY23" t="inlineStr">
         <is>
           <t>1 подход</t>
         </is>
       </c>
-      <c r="BW23" t="inlineStr">
+      <c r="BZ23" t="inlineStr">
         <is>
           <t>2 подход</t>
         </is>
       </c>
-      <c r="BX23" t="inlineStr">
+      <c r="CA23" t="inlineStr">
         <is>
           <t>3 подход</t>
         </is>
       </c>
-      <c r="BY23" t="inlineStr">
+      <c r="CB23" t="inlineStr">
         <is>
           <t>4 подход</t>
         </is>
       </c>
-      <c r="BZ23" t="inlineStr">
+      <c r="CC23" t="inlineStr">
         <is>
           <t>5 подход</t>
         </is>
       </c>
-      <c r="CA23" t="inlineStr">
+      <c r="CD23" t="inlineStr">
         <is>
           <t>6 подход</t>
         </is>
       </c>
-      <c r="CB23" t="inlineStr">
+      <c r="CE23" t="inlineStr">
         <is>
           <t>Отдых между подходами</t>
         </is>
       </c>
-      <c r="CC23" t="inlineStr"/>
+      <c r="CF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -6830,67 +7043,76 @@
       <c r="BL24" t="n">
         <v>22</v>
       </c>
-      <c r="BM24" t="inlineStr">
+      <c r="BM24" t="n">
+        <v>22</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>22</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>22</v>
+      </c>
+      <c r="BP24" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN24" t="n">
+      <c r="BQ24" t="n">
         <v>2</v>
       </c>
-      <c r="BO24" t="n">
+      <c r="BR24" t="n">
         <v>1</v>
       </c>
-      <c r="BP24" t="inlineStr">
+      <c r="BS24" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ24" t="inlineStr">
+      <c r="BT24" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR24" t="inlineStr">
+      <c r="BU24" t="inlineStr">
         <is>
           <t>Становая тяга классическая с плинтов</t>
         </is>
       </c>
-      <c r="BS24" t="inlineStr">
+      <c r="BV24" t="inlineStr">
         <is>
           <t>6х4</t>
         </is>
       </c>
-      <c r="BT24" t="inlineStr">
+      <c r="BW24" t="inlineStr">
         <is>
           <t>50-60 кг с повышением</t>
         </is>
       </c>
-      <c r="BU24" t="inlineStr">
+      <c r="BX24" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV24" t="inlineStr">
+      <c r="BY24" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="BW24" t="inlineStr">
+      <c r="BZ24" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="BX24" t="inlineStr"/>
-      <c r="BY24" t="inlineStr"/>
-      <c r="BZ24" t="inlineStr"/>
       <c r="CA24" t="inlineStr"/>
-      <c r="CB24" t="inlineStr">
+      <c r="CB24" t="inlineStr"/>
+      <c r="CC24" t="inlineStr"/>
+      <c r="CD24" t="inlineStr"/>
+      <c r="CE24" t="inlineStr">
         <is>
           <t>120 секунд</t>
         </is>
       </c>
-      <c r="CC24" t="inlineStr"/>
+      <c r="CF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -7085,67 +7307,76 @@
       <c r="BL25" t="n">
         <v>23</v>
       </c>
-      <c r="BM25" t="inlineStr">
+      <c r="BM25" t="n">
+        <v>23</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>23</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>23</v>
+      </c>
+      <c r="BP25" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN25" t="n">
+      <c r="BQ25" t="n">
         <v>2</v>
       </c>
-      <c r="BO25" t="n">
+      <c r="BR25" t="n">
         <v>1</v>
       </c>
-      <c r="BP25" t="inlineStr">
+      <c r="BS25" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ25" t="inlineStr">
+      <c r="BT25" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR25" t="inlineStr">
+      <c r="BU25" t="inlineStr">
         <is>
           <t>Тяга штанги к поясу в наклоне стоя</t>
         </is>
       </c>
-      <c r="BS25" t="inlineStr">
+      <c r="BV25" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT25" t="inlineStr">
+      <c r="BW25" t="inlineStr">
         <is>
           <t>35-40 кг с повышением</t>
         </is>
       </c>
-      <c r="BU25" t="inlineStr">
+      <c r="BX25" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV25" t="inlineStr"/>
-      <c r="BW25" t="inlineStr"/>
-      <c r="BX25" t="inlineStr"/>
       <c r="BY25" t="inlineStr"/>
-      <c r="BZ25" t="inlineStr">
+      <c r="BZ25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr"/>
+      <c r="CB25" t="inlineStr"/>
+      <c r="CC25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA25" t="inlineStr">
+      <c r="CD25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB25" t="inlineStr">
+      <c r="CE25" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC25" t="inlineStr"/>
+      <c r="CF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -7340,67 +7571,76 @@
       <c r="BL26" t="n">
         <v>24</v>
       </c>
-      <c r="BM26" t="inlineStr">
+      <c r="BM26" t="n">
+        <v>24</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>24</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>24</v>
+      </c>
+      <c r="BP26" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN26" t="n">
+      <c r="BQ26" t="n">
         <v>2</v>
       </c>
-      <c r="BO26" t="n">
+      <c r="BR26" t="n">
         <v>1</v>
       </c>
-      <c r="BP26" t="inlineStr">
+      <c r="BS26" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ26" t="inlineStr">
+      <c r="BT26" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR26" t="inlineStr">
+      <c r="BU26" t="inlineStr">
         <is>
           <t>Горизонтальная тяга нижнего блока к поясу узким хватом в блочном тренажере сидя</t>
         </is>
       </c>
-      <c r="BS26" t="inlineStr">
+      <c r="BV26" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT26" t="inlineStr">
+      <c r="BW26" t="inlineStr">
         <is>
           <t>7-8 плиток с повышением</t>
         </is>
       </c>
-      <c r="BU26" t="inlineStr">
+      <c r="BX26" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="BV26" t="inlineStr"/>
-      <c r="BW26" t="inlineStr"/>
-      <c r="BX26" t="inlineStr"/>
       <c r="BY26" t="inlineStr"/>
-      <c r="BZ26" t="inlineStr">
+      <c r="BZ26" t="inlineStr"/>
+      <c r="CA26" t="inlineStr"/>
+      <c r="CB26" t="inlineStr"/>
+      <c r="CC26" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA26" t="inlineStr">
+      <c r="CD26" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB26" t="inlineStr">
+      <c r="CE26" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC26" t="inlineStr"/>
+      <c r="CF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -7595,67 +7835,76 @@
       <c r="BL27" t="n">
         <v>25</v>
       </c>
-      <c r="BM27" t="inlineStr">
+      <c r="BM27" t="n">
+        <v>25</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>25</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>25</v>
+      </c>
+      <c r="BP27" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN27" t="n">
+      <c r="BQ27" t="n">
         <v>2</v>
       </c>
-      <c r="BO27" t="n">
+      <c r="BR27" t="n">
         <v>1</v>
       </c>
-      <c r="BP27" t="inlineStr">
+      <c r="BS27" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ27" t="inlineStr">
+      <c r="BT27" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR27" t="inlineStr">
+      <c r="BU27" t="inlineStr">
         <is>
           <t>Отжимания (брусья)</t>
         </is>
       </c>
-      <c r="BS27" t="inlineStr">
+      <c r="BV27" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT27" t="inlineStr">
+      <c r="BW27" t="inlineStr">
         <is>
           <t>10 кг с повышением</t>
         </is>
       </c>
-      <c r="BU27" t="inlineStr">
+      <c r="BX27" t="inlineStr">
         <is>
           <t>Контролируй наклон туловища и локти</t>
         </is>
       </c>
-      <c r="BV27" t="inlineStr"/>
-      <c r="BW27" t="inlineStr"/>
-      <c r="BX27" t="inlineStr"/>
       <c r="BY27" t="inlineStr"/>
-      <c r="BZ27" t="inlineStr">
+      <c r="BZ27" t="inlineStr"/>
+      <c r="CA27" t="inlineStr"/>
+      <c r="CB27" t="inlineStr"/>
+      <c r="CC27" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA27" t="inlineStr">
+      <c r="CD27" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB27" t="inlineStr">
+      <c r="CE27" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC27" t="inlineStr"/>
+      <c r="CF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -7850,67 +8099,76 @@
       <c r="BL28" t="n">
         <v>26</v>
       </c>
-      <c r="BM28" t="inlineStr">
+      <c r="BM28" t="n">
+        <v>26</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>26</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>26</v>
+      </c>
+      <c r="BP28" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN28" t="n">
+      <c r="BQ28" t="n">
         <v>2</v>
       </c>
-      <c r="BO28" t="n">
+      <c r="BR28" t="n">
         <v>1</v>
       </c>
-      <c r="BP28" t="inlineStr">
+      <c r="BS28" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ28" t="inlineStr">
+      <c r="BT28" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR28" t="inlineStr">
+      <c r="BU28" t="inlineStr">
         <is>
           <t>Сгибание со штангой на бицепс стоя</t>
         </is>
       </c>
-      <c r="BS28" t="inlineStr">
+      <c r="BV28" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT28" t="inlineStr">
+      <c r="BW28" t="inlineStr">
         <is>
           <t>20-25 кг</t>
         </is>
       </c>
-      <c r="BU28" t="inlineStr">
+      <c r="BX28" t="inlineStr">
         <is>
           <t>Контроль локтей</t>
         </is>
       </c>
-      <c r="BV28" t="inlineStr"/>
-      <c r="BW28" t="inlineStr"/>
-      <c r="BX28" t="inlineStr"/>
       <c r="BY28" t="inlineStr"/>
-      <c r="BZ28" t="inlineStr">
+      <c r="BZ28" t="inlineStr"/>
+      <c r="CA28" t="inlineStr"/>
+      <c r="CB28" t="inlineStr"/>
+      <c r="CC28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA28" t="inlineStr">
+      <c r="CD28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB28" t="inlineStr">
+      <c r="CE28" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC28" t="inlineStr"/>
+      <c r="CF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -8105,71 +8363,80 @@
       <c r="BL29" t="n">
         <v>27</v>
       </c>
-      <c r="BM29" t="inlineStr">
+      <c r="BM29" t="n">
+        <v>27</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>27</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>27</v>
+      </c>
+      <c r="BP29" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN29" t="n">
+      <c r="BQ29" t="n">
         <v>2</v>
       </c>
-      <c r="BO29" t="n">
+      <c r="BR29" t="n">
         <v>1</v>
       </c>
-      <c r="BP29" t="inlineStr">
+      <c r="BS29" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ29" t="inlineStr">
+      <c r="BT29" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR29" t="inlineStr">
+      <c r="BU29" t="inlineStr">
         <is>
           <t>Отжимания от пола (узко)</t>
         </is>
       </c>
-      <c r="BS29" t="inlineStr">
+      <c r="BV29" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT29" t="inlineStr">
+      <c r="BW29" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU29" t="inlineStr">
+      <c r="BX29" t="inlineStr">
         <is>
           <t>Локти вдоль туловища</t>
         </is>
       </c>
-      <c r="BV29" t="inlineStr"/>
-      <c r="BW29" t="inlineStr"/>
-      <c r="BX29" t="inlineStr"/>
-      <c r="BY29" t="inlineStr">
+      <c r="BY29" t="inlineStr"/>
+      <c r="BZ29" t="inlineStr"/>
+      <c r="CA29" t="inlineStr"/>
+      <c r="CB29" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ29" t="inlineStr">
+      <c r="CC29" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA29" t="inlineStr">
+      <c r="CD29" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB29" t="inlineStr">
+      <c r="CE29" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC29" t="inlineStr"/>
+      <c r="CF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -8364,83 +8631,92 @@
       <c r="BL30" t="n">
         <v>28</v>
       </c>
-      <c r="BM30" t="inlineStr">
+      <c r="BM30" t="n">
+        <v>28</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>28</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>28</v>
+      </c>
+      <c r="BP30" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN30" t="n">
+      <c r="BQ30" t="n">
         <v>2</v>
       </c>
-      <c r="BO30" t="n">
+      <c r="BR30" t="n">
         <v>1</v>
       </c>
-      <c r="BP30" t="inlineStr">
+      <c r="BS30" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ30" t="inlineStr">
+      <c r="BT30" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR30" t="inlineStr">
+      <c r="BU30" t="inlineStr">
         <is>
           <t>Прямые скручивания</t>
         </is>
       </c>
-      <c r="BS30" t="inlineStr">
+      <c r="BV30" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="BT30" t="inlineStr">
+      <c r="BW30" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU30" t="inlineStr">
+      <c r="BX30" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BV30" t="inlineStr">
+      <c r="BY30" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BW30" t="inlineStr">
+      <c r="BZ30" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BX30" t="inlineStr">
+      <c r="CA30" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BY30" t="inlineStr">
+      <c r="CB30" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BZ30" t="inlineStr">
+      <c r="CC30" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA30" t="inlineStr">
+      <c r="CD30" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB30" t="inlineStr">
+      <c r="CE30" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="CC30" t="inlineStr"/>
+      <c r="CF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -8635,79 +8911,88 @@
       <c r="BL31" t="n">
         <v>29</v>
       </c>
-      <c r="BM31" t="inlineStr">
+      <c r="BM31" t="n">
+        <v>29</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>29</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>29</v>
+      </c>
+      <c r="BP31" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN31" t="n">
+      <c r="BQ31" t="n">
         <v>2</v>
       </c>
-      <c r="BO31" t="n">
+      <c r="BR31" t="n">
         <v>2</v>
       </c>
-      <c r="BP31" t="inlineStr">
+      <c r="BS31" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ31" t="inlineStr">
+      <c r="BT31" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR31" t="inlineStr">
+      <c r="BU31" t="inlineStr">
         <is>
           <t>Приседания со штангой на спине</t>
         </is>
       </c>
-      <c r="BS31" t="inlineStr">
+      <c r="BV31" t="inlineStr">
         <is>
           <t>6х4</t>
         </is>
       </c>
-      <c r="BT31" t="inlineStr">
+      <c r="BW31" t="inlineStr">
         <is>
           <t>45-50 кг с повышением</t>
         </is>
       </c>
-      <c r="BU31" t="inlineStr">
+      <c r="BX31" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV31" t="inlineStr">
+      <c r="BY31" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="BW31" t="inlineStr">
+      <c r="BZ31" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="BX31" t="inlineStr">
+      <c r="CA31" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="BY31" t="inlineStr">
+      <c r="CB31" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="BZ31" t="inlineStr">
+      <c r="CC31" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="CA31" t="inlineStr"/>
-      <c r="CB31" t="inlineStr">
+      <c r="CD31" t="inlineStr"/>
+      <c r="CE31" t="inlineStr">
         <is>
           <t>120 секунд</t>
         </is>
       </c>
-      <c r="CC31" t="inlineStr"/>
+      <c r="CF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -8902,83 +9187,92 @@
       <c r="BL32" t="n">
         <v>30</v>
       </c>
-      <c r="BM32" t="inlineStr">
+      <c r="BM32" t="n">
+        <v>30</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>30</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>30</v>
+      </c>
+      <c r="BP32" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN32" t="n">
+      <c r="BQ32" t="n">
         <v>2</v>
       </c>
-      <c r="BO32" t="n">
+      <c r="BR32" t="n">
         <v>2</v>
       </c>
-      <c r="BP32" t="inlineStr">
+      <c r="BS32" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ32" t="inlineStr">
+      <c r="BT32" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR32" t="inlineStr">
+      <c r="BU32" t="inlineStr">
         <is>
           <t>Гакк-приседания (широко)</t>
         </is>
       </c>
-      <c r="BS32" t="inlineStr">
+      <c r="BV32" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT32" t="inlineStr">
+      <c r="BW32" t="inlineStr">
         <is>
           <t>25-30 кг с повышением</t>
         </is>
       </c>
-      <c r="BU32" t="inlineStr">
+      <c r="BX32" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV32" t="inlineStr">
+      <c r="BY32" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="BW32" t="inlineStr">
+      <c r="BZ32" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="BX32" t="inlineStr">
+      <c r="CA32" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="BY32" t="inlineStr">
+      <c r="CB32" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="BZ32" t="inlineStr">
+      <c r="CC32" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA32" t="inlineStr">
+      <c r="CD32" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB32" t="inlineStr">
+      <c r="CE32" t="inlineStr">
         <is>
           <t>90-120 секунд</t>
         </is>
       </c>
-      <c r="CC32" t="inlineStr"/>
+      <c r="CF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -9173,83 +9467,92 @@
       <c r="BL33" t="n">
         <v>31</v>
       </c>
-      <c r="BM33" t="inlineStr">
+      <c r="BM33" t="n">
+        <v>31</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>31</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>31</v>
+      </c>
+      <c r="BP33" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN33" t="n">
+      <c r="BQ33" t="n">
         <v>2</v>
       </c>
-      <c r="BO33" t="n">
+      <c r="BR33" t="n">
         <v>2</v>
       </c>
-      <c r="BP33" t="inlineStr">
+      <c r="BS33" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ33" t="inlineStr">
+      <c r="BT33" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR33" t="inlineStr">
+      <c r="BU33" t="inlineStr">
         <is>
           <t>Разгибание туловища (ягодицы)</t>
         </is>
       </c>
-      <c r="BS33" t="inlineStr">
+      <c r="BV33" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT33" t="inlineStr">
+      <c r="BW33" t="inlineStr">
         <is>
           <t>10-15 кг с повышением</t>
         </is>
       </c>
-      <c r="BU33" t="inlineStr">
+      <c r="BX33" t="inlineStr">
         <is>
           <t>Работай через таз/Контроль поясницы</t>
         </is>
       </c>
-      <c r="BV33" t="inlineStr">
+      <c r="BY33" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="BW33" t="inlineStr">
+      <c r="BZ33" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="BX33" t="inlineStr">
+      <c r="CA33" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="BY33" t="inlineStr">
+      <c r="CB33" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="BZ33" t="inlineStr">
+      <c r="CC33" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA33" t="inlineStr">
+      <c r="CD33" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB33" t="inlineStr">
+      <c r="CE33" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC33" t="inlineStr"/>
+      <c r="CF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -9444,83 +9747,92 @@
       <c r="BL34" t="n">
         <v>32</v>
       </c>
-      <c r="BM34" t="inlineStr">
+      <c r="BM34" t="n">
+        <v>32</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>32</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>32</v>
+      </c>
+      <c r="BP34" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN34" t="n">
+      <c r="BQ34" t="n">
         <v>2</v>
       </c>
-      <c r="BO34" t="n">
+      <c r="BR34" t="n">
         <v>2</v>
       </c>
-      <c r="BP34" t="inlineStr">
+      <c r="BS34" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ34" t="inlineStr">
+      <c r="BT34" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR34" t="inlineStr">
+      <c r="BU34" t="inlineStr">
         <is>
           <t>Жиш штанги лежа на горизонтальной скамье</t>
         </is>
       </c>
-      <c r="BS34" t="inlineStr">
+      <c r="BV34" t="inlineStr">
         <is>
           <t>4х4</t>
         </is>
       </c>
-      <c r="BT34" t="inlineStr">
+      <c r="BW34" t="inlineStr">
         <is>
           <t>50-55 кг с повышением</t>
         </is>
       </c>
-      <c r="BU34" t="inlineStr">
+      <c r="BX34" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV34" t="inlineStr">
+      <c r="BY34" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="BW34" t="inlineStr">
+      <c r="BZ34" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="BX34" t="inlineStr">
+      <c r="CA34" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="BY34" t="inlineStr">
+      <c r="CB34" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="BZ34" t="inlineStr">
+      <c r="CC34" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA34" t="inlineStr">
+      <c r="CD34" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB34" t="inlineStr">
+      <c r="CE34" t="inlineStr">
         <is>
           <t>90  секунд</t>
         </is>
       </c>
-      <c r="CC34" t="inlineStr"/>
+      <c r="CF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -9715,83 +10027,92 @@
       <c r="BL35" t="n">
         <v>33</v>
       </c>
-      <c r="BM35" t="inlineStr">
+      <c r="BM35" t="n">
+        <v>33</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>33</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>33</v>
+      </c>
+      <c r="BP35" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN35" t="n">
+      <c r="BQ35" t="n">
         <v>2</v>
       </c>
-      <c r="BO35" t="n">
+      <c r="BR35" t="n">
         <v>2</v>
       </c>
-      <c r="BP35" t="inlineStr">
+      <c r="BS35" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ35" t="inlineStr">
+      <c r="BT35" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR35" t="inlineStr">
+      <c r="BU35" t="inlineStr">
         <is>
           <t>Жим штанги лежа на наклонной скамье 30 градусов</t>
         </is>
       </c>
-      <c r="BS35" t="inlineStr">
+      <c r="BV35" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT35" t="inlineStr">
+      <c r="BW35" t="inlineStr">
         <is>
           <t>45 кг с повышением</t>
         </is>
       </c>
-      <c r="BU35" t="inlineStr">
+      <c r="BX35" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV35" t="inlineStr">
+      <c r="BY35" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="BW35" t="inlineStr">
+      <c r="BZ35" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="BX35" t="inlineStr">
+      <c r="CA35" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="BY35" t="inlineStr">
+      <c r="CB35" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="BZ35" t="inlineStr">
+      <c r="CC35" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA35" t="inlineStr">
+      <c r="CD35" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB35" t="inlineStr">
+      <c r="CE35" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC35" t="inlineStr"/>
+      <c r="CF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -9986,71 +10307,80 @@
       <c r="BL36" t="n">
         <v>34</v>
       </c>
-      <c r="BM36" t="inlineStr">
+      <c r="BM36" t="n">
+        <v>34</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>34</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>34</v>
+      </c>
+      <c r="BP36" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN36" t="n">
+      <c r="BQ36" t="n">
         <v>2</v>
       </c>
-      <c r="BO36" t="n">
+      <c r="BR36" t="n">
         <v>2</v>
       </c>
-      <c r="BP36" t="inlineStr">
+      <c r="BS36" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ36" t="inlineStr">
+      <c r="BT36" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR36" t="inlineStr">
+      <c r="BU36" t="inlineStr">
         <is>
           <t>Отжимания от пола</t>
         </is>
       </c>
-      <c r="BS36" t="inlineStr">
+      <c r="BV36" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT36" t="inlineStr">
+      <c r="BW36" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU36" t="inlineStr">
+      <c r="BX36" t="inlineStr">
         <is>
           <t>Средняя/Широкая постановка рук</t>
         </is>
       </c>
-      <c r="BV36" t="inlineStr"/>
-      <c r="BW36" t="inlineStr"/>
-      <c r="BX36" t="inlineStr"/>
-      <c r="BY36" t="inlineStr">
+      <c r="BY36" t="inlineStr"/>
+      <c r="BZ36" t="inlineStr"/>
+      <c r="CA36" t="inlineStr"/>
+      <c r="CB36" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ36" t="inlineStr">
+      <c r="CC36" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA36" t="inlineStr">
+      <c r="CD36" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB36" t="inlineStr">
+      <c r="CE36" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC36" t="inlineStr"/>
+      <c r="CF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -10245,83 +10575,92 @@
       <c r="BL37" t="n">
         <v>35</v>
       </c>
-      <c r="BM37" t="inlineStr">
+      <c r="BM37" t="n">
+        <v>35</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>35</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>35</v>
+      </c>
+      <c r="BP37" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN37" t="n">
+      <c r="BQ37" t="n">
         <v>2</v>
       </c>
-      <c r="BO37" t="n">
+      <c r="BR37" t="n">
         <v>2</v>
       </c>
-      <c r="BP37" t="inlineStr">
+      <c r="BS37" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ37" t="inlineStr">
+      <c r="BT37" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR37" t="inlineStr">
+      <c r="BU37" t="inlineStr">
         <is>
           <t>Прямые скручивания</t>
         </is>
       </c>
-      <c r="BS37" t="inlineStr">
+      <c r="BV37" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="BT37" t="inlineStr">
+      <c r="BW37" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU37" t="inlineStr">
+      <c r="BX37" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BV37" t="inlineStr">
+      <c r="BY37" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BW37" t="inlineStr">
+      <c r="BZ37" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BX37" t="inlineStr">
+      <c r="CA37" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BY37" t="inlineStr">
+      <c r="CB37" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BZ37" t="inlineStr">
+      <c r="CC37" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA37" t="inlineStr">
+      <c r="CD37" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB37" t="inlineStr">
+      <c r="CE37" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="CC37" t="inlineStr"/>
+      <c r="CF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -10516,59 +10855,80 @@
       <c r="BL38" t="n">
         <v>36</v>
       </c>
-      <c r="BM38" t="inlineStr">
+      <c r="BM38" t="n">
+        <v>36</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>36</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>36</v>
+      </c>
+      <c r="BP38" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN38" t="n">
+      <c r="BQ38" t="n">
         <v>2</v>
       </c>
-      <c r="BO38" t="n">
+      <c r="BR38" t="n">
         <v>3</v>
       </c>
-      <c r="BP38" t="inlineStr">
+      <c r="BS38" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ38" t="inlineStr">
+      <c r="BT38" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR38" t="inlineStr">
+      <c r="BU38" t="inlineStr">
         <is>
           <t>Тяга штанги к поясу в наклоне стоя</t>
         </is>
       </c>
-      <c r="BS38" t="inlineStr">
+      <c r="BV38" t="inlineStr">
         <is>
           <t>6х4</t>
         </is>
       </c>
-      <c r="BT38" t="inlineStr">
+      <c r="BW38" t="inlineStr">
         <is>
           <t>40-45 кг с повышением</t>
         </is>
       </c>
-      <c r="BU38" t="inlineStr">
+      <c r="BX38" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV38" t="inlineStr"/>
-      <c r="BW38" t="inlineStr"/>
-      <c r="BX38" t="inlineStr"/>
-      <c r="BY38" t="inlineStr"/>
-      <c r="BZ38" t="inlineStr"/>
-      <c r="CA38" t="inlineStr"/>
-      <c r="CB38" t="inlineStr">
+      <c r="BY38" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BZ38" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="CA38" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="CB38" t="inlineStr"/>
+      <c r="CC38" t="inlineStr"/>
+      <c r="CD38" t="inlineStr"/>
+      <c r="CE38" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC38" t="inlineStr"/>
+      <c r="CF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -10763,63 +11123,72 @@
       <c r="BL39" t="n">
         <v>37</v>
       </c>
-      <c r="BM39" t="inlineStr">
+      <c r="BM39" t="n">
+        <v>37</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>37</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>37</v>
+      </c>
+      <c r="BP39" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN39" t="n">
+      <c r="BQ39" t="n">
         <v>2</v>
       </c>
-      <c r="BO39" t="n">
+      <c r="BR39" t="n">
         <v>3</v>
       </c>
-      <c r="BP39" t="inlineStr">
+      <c r="BS39" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ39" t="inlineStr">
+      <c r="BT39" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR39" t="inlineStr">
+      <c r="BU39" t="inlineStr">
         <is>
           <t>Подтягивания (с резиной/без)</t>
         </is>
       </c>
-      <c r="BS39" t="inlineStr">
+      <c r="BV39" t="inlineStr">
         <is>
           <t>5х6</t>
         </is>
       </c>
-      <c r="BT39" t="inlineStr">
+      <c r="BW39" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU39" t="inlineStr">
+      <c r="BX39" t="inlineStr">
         <is>
           <t>Средний хват</t>
         </is>
       </c>
-      <c r="BV39" t="inlineStr"/>
-      <c r="BW39" t="inlineStr"/>
-      <c r="BX39" t="inlineStr"/>
       <c r="BY39" t="inlineStr"/>
       <c r="BZ39" t="inlineStr"/>
-      <c r="CA39" t="inlineStr">
+      <c r="CA39" t="inlineStr"/>
+      <c r="CB39" t="inlineStr"/>
+      <c r="CC39" t="inlineStr"/>
+      <c r="CD39" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB39" t="inlineStr">
+      <c r="CE39" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC39" t="inlineStr"/>
+      <c r="CF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -11014,67 +11383,76 @@
       <c r="BL40" t="n">
         <v>38</v>
       </c>
-      <c r="BM40" t="inlineStr">
+      <c r="BM40" t="n">
+        <v>38</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>38</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>38</v>
+      </c>
+      <c r="BP40" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN40" t="n">
+      <c r="BQ40" t="n">
         <v>2</v>
       </c>
-      <c r="BO40" t="n">
+      <c r="BR40" t="n">
         <v>3</v>
       </c>
-      <c r="BP40" t="inlineStr">
+      <c r="BS40" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ40" t="inlineStr">
+      <c r="BT40" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR40" t="inlineStr">
+      <c r="BU40" t="inlineStr">
         <is>
           <t>Горизонтальная рычажная тяга (узко)</t>
         </is>
       </c>
-      <c r="BS40" t="inlineStr">
+      <c r="BV40" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT40" t="inlineStr">
+      <c r="BW40" t="inlineStr">
         <is>
           <t>20-25 кг с повышением</t>
         </is>
       </c>
-      <c r="BU40" t="inlineStr">
+      <c r="BX40" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="BV40" t="inlineStr"/>
-      <c r="BW40" t="inlineStr"/>
-      <c r="BX40" t="inlineStr"/>
       <c r="BY40" t="inlineStr"/>
-      <c r="BZ40" t="inlineStr">
+      <c r="BZ40" t="inlineStr"/>
+      <c r="CA40" t="inlineStr"/>
+      <c r="CB40" t="inlineStr"/>
+      <c r="CC40" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA40" t="inlineStr">
+      <c r="CD40" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB40" t="inlineStr">
+      <c r="CE40" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC40" t="inlineStr"/>
+      <c r="CF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -11269,67 +11647,76 @@
       <c r="BL41" t="n">
         <v>39</v>
       </c>
-      <c r="BM41" t="inlineStr">
+      <c r="BM41" t="n">
+        <v>39</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>39</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>39</v>
+      </c>
+      <c r="BP41" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN41" t="n">
+      <c r="BQ41" t="n">
         <v>2</v>
       </c>
-      <c r="BO41" t="n">
+      <c r="BR41" t="n">
         <v>3</v>
       </c>
-      <c r="BP41" t="inlineStr">
+      <c r="BS41" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ41" t="inlineStr">
+      <c r="BT41" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR41" t="inlineStr">
+      <c r="BU41" t="inlineStr">
         <is>
           <t>Вертикальная тяга верхнего блока к груди средним хватом в блочном тренажере сидя</t>
         </is>
       </c>
-      <c r="BS41" t="inlineStr">
+      <c r="BV41" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT41" t="inlineStr">
+      <c r="BW41" t="inlineStr">
         <is>
           <t>7-8 плиток с повышением</t>
         </is>
       </c>
-      <c r="BU41" t="inlineStr">
+      <c r="BX41" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV41" t="inlineStr"/>
-      <c r="BW41" t="inlineStr"/>
-      <c r="BX41" t="inlineStr"/>
       <c r="BY41" t="inlineStr"/>
-      <c r="BZ41" t="inlineStr">
+      <c r="BZ41" t="inlineStr"/>
+      <c r="CA41" t="inlineStr"/>
+      <c r="CB41" t="inlineStr"/>
+      <c r="CC41" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA41" t="inlineStr">
+      <c r="CD41" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB41" t="inlineStr">
+      <c r="CE41" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC41" t="inlineStr"/>
+      <c r="CF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -11524,67 +11911,76 @@
       <c r="BL42" t="n">
         <v>40</v>
       </c>
-      <c r="BM42" t="inlineStr">
+      <c r="BM42" t="n">
+        <v>40</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>40</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>40</v>
+      </c>
+      <c r="BP42" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN42" t="n">
+      <c r="BQ42" t="n">
         <v>2</v>
       </c>
-      <c r="BO42" t="n">
+      <c r="BR42" t="n">
         <v>3</v>
       </c>
-      <c r="BP42" t="inlineStr">
+      <c r="BS42" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ42" t="inlineStr">
+      <c r="BT42" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR42" t="inlineStr">
+      <c r="BU42" t="inlineStr">
         <is>
           <t>Французский жим штанги лежа за голову (хват снизу чуть уже или на ширине плеч)</t>
         </is>
       </c>
-      <c r="BS42" t="inlineStr">
+      <c r="BV42" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="BT42" t="inlineStr">
+      <c r="BW42" t="inlineStr">
         <is>
           <t>15-20 кг с повышением</t>
         </is>
       </c>
-      <c r="BU42" t="inlineStr">
+      <c r="BX42" t="inlineStr">
         <is>
           <t>Контроль локтей/Исходное положение лежа, штанга вытянута перпендикулярно туловищу, сгибаешь руки в локтевых сутсавах, опуская штангу за голову к темечку/Локти немного расходятся в сторону, параллельны друг другу</t>
         </is>
       </c>
-      <c r="BV42" t="inlineStr"/>
-      <c r="BW42" t="inlineStr"/>
-      <c r="BX42" t="inlineStr"/>
       <c r="BY42" t="inlineStr"/>
-      <c r="BZ42" t="inlineStr">
+      <c r="BZ42" t="inlineStr"/>
+      <c r="CA42" t="inlineStr"/>
+      <c r="CB42" t="inlineStr"/>
+      <c r="CC42" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA42" t="inlineStr">
+      <c r="CD42" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB42" t="inlineStr">
+      <c r="CE42" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC42" t="inlineStr"/>
+      <c r="CF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -11779,71 +12175,80 @@
       <c r="BL43" t="n">
         <v>41</v>
       </c>
-      <c r="BM43" t="inlineStr">
+      <c r="BM43" t="n">
+        <v>41</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>41</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>41</v>
+      </c>
+      <c r="BP43" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN43" t="n">
+      <c r="BQ43" t="n">
         <v>2</v>
       </c>
-      <c r="BO43" t="n">
+      <c r="BR43" t="n">
         <v>3</v>
       </c>
-      <c r="BP43" t="inlineStr">
+      <c r="BS43" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ43" t="inlineStr">
+      <c r="BT43" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR43" t="inlineStr">
+      <c r="BU43" t="inlineStr">
         <is>
           <t>Сгибание со штангой на бицепс стоя</t>
         </is>
       </c>
-      <c r="BS43" t="inlineStr">
+      <c r="BV43" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT43" t="inlineStr">
+      <c r="BW43" t="inlineStr">
         <is>
           <t>20-25 кг</t>
         </is>
       </c>
-      <c r="BU43" t="inlineStr">
+      <c r="BX43" t="inlineStr">
         <is>
           <t>Контроль локтей</t>
         </is>
       </c>
-      <c r="BV43" t="inlineStr"/>
-      <c r="BW43" t="inlineStr"/>
-      <c r="BX43" t="inlineStr"/>
-      <c r="BY43" t="inlineStr">
+      <c r="BY43" t="inlineStr"/>
+      <c r="BZ43" t="inlineStr"/>
+      <c r="CA43" t="inlineStr"/>
+      <c r="CB43" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ43" t="inlineStr">
+      <c r="CC43" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA43" t="inlineStr">
+      <c r="CD43" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB43" t="inlineStr">
+      <c r="CE43" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC43" t="inlineStr"/>
+      <c r="CF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -12038,83 +12443,92 @@
       <c r="BL44" t="n">
         <v>42</v>
       </c>
-      <c r="BM44" t="inlineStr">
+      <c r="BM44" t="n">
+        <v>42</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>42</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>42</v>
+      </c>
+      <c r="BP44" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN44" t="n">
+      <c r="BQ44" t="n">
         <v>2</v>
       </c>
-      <c r="BO44" t="n">
+      <c r="BR44" t="n">
         <v>3</v>
       </c>
-      <c r="BP44" t="inlineStr">
+      <c r="BS44" t="inlineStr">
         <is>
           <t>4-6/90-65%</t>
         </is>
       </c>
-      <c r="BQ44" t="inlineStr">
+      <c r="BT44" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR44" t="inlineStr">
+      <c r="BU44" t="inlineStr">
         <is>
           <t>Прямые скручивания</t>
         </is>
       </c>
-      <c r="BS44" t="inlineStr">
+      <c r="BV44" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="BT44" t="inlineStr">
+      <c r="BW44" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU44" t="inlineStr">
+      <c r="BX44" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BV44" t="inlineStr">
+      <c r="BY44" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BW44" t="inlineStr">
+      <c r="BZ44" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BX44" t="inlineStr">
+      <c r="CA44" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BY44" t="inlineStr">
+      <c r="CB44" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BZ44" t="inlineStr">
+      <c r="CC44" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA44" t="inlineStr">
+      <c r="CD44" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB44" t="inlineStr">
+      <c r="CE44" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="CC44" t="inlineStr"/>
+      <c r="CF44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -12309,87 +12723,96 @@
       <c r="BL45" t="n">
         <v>43</v>
       </c>
-      <c r="BM45" t="inlineStr">
+      <c r="BM45" t="n">
+        <v>43</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>43</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>43</v>
+      </c>
+      <c r="BP45" t="inlineStr">
         <is>
           <t>месяц</t>
         </is>
       </c>
-      <c r="BN45" t="inlineStr">
+      <c r="BQ45" t="inlineStr">
         <is>
           <t>Неделя</t>
         </is>
       </c>
-      <c r="BO45" t="inlineStr">
+      <c r="BR45" t="inlineStr">
         <is>
           <t>Тренировка</t>
         </is>
       </c>
-      <c r="BP45" t="inlineStr">
+      <c r="BS45" t="inlineStr">
         <is>
           <t>Повторы/% от ПМ</t>
         </is>
       </c>
-      <c r="BQ45" t="inlineStr">
+      <c r="BT45" t="inlineStr">
         <is>
           <t>Мышечные группы</t>
         </is>
       </c>
-      <c r="BR45" t="inlineStr">
+      <c r="BU45" t="inlineStr">
         <is>
           <t>Упражнения</t>
         </is>
       </c>
-      <c r="BS45" t="inlineStr">
+      <c r="BV45" t="inlineStr">
         <is>
           <t>Количество подходов/повторений</t>
         </is>
       </c>
-      <c r="BT45" t="inlineStr">
+      <c r="BW45" t="inlineStr">
         <is>
           <t>Рабочий вес</t>
         </is>
       </c>
-      <c r="BU45" t="inlineStr">
+      <c r="BX45" t="inlineStr">
         <is>
           <t>Комментарии</t>
         </is>
       </c>
-      <c r="BV45" t="inlineStr">
+      <c r="BY45" t="inlineStr">
         <is>
           <t>1 подход</t>
         </is>
       </c>
-      <c r="BW45" t="inlineStr">
+      <c r="BZ45" t="inlineStr">
         <is>
           <t>2 подход</t>
         </is>
       </c>
-      <c r="BX45" t="inlineStr">
+      <c r="CA45" t="inlineStr">
         <is>
           <t>3 подход</t>
         </is>
       </c>
-      <c r="BY45" t="inlineStr">
+      <c r="CB45" t="inlineStr">
         <is>
           <t>4 подход</t>
         </is>
       </c>
-      <c r="BZ45" t="inlineStr">
+      <c r="CC45" t="inlineStr">
         <is>
           <t>5 подход</t>
         </is>
       </c>
-      <c r="CA45" t="inlineStr">
+      <c r="CD45" t="inlineStr">
         <is>
           <t>6 подход</t>
         </is>
       </c>
-      <c r="CB45" t="inlineStr">
+      <c r="CE45" t="inlineStr">
         <is>
           <t>Отдых между подходами</t>
         </is>
       </c>
-      <c r="CC45" t="inlineStr"/>
+      <c r="CF45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -12584,71 +13007,80 @@
       <c r="BL46" t="n">
         <v>44</v>
       </c>
-      <c r="BM46" t="inlineStr">
+      <c r="BM46" t="n">
+        <v>44</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>44</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>44</v>
+      </c>
+      <c r="BP46" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN46" t="n">
+      <c r="BQ46" t="n">
         <v>3</v>
       </c>
-      <c r="BO46" t="n">
+      <c r="BR46" t="n">
         <v>1</v>
       </c>
-      <c r="BP46" t="inlineStr">
+      <c r="BS46" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ46" t="inlineStr">
+      <c r="BT46" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR46" t="inlineStr">
+      <c r="BU46" t="inlineStr">
         <is>
           <t>Разгибание голени в тренажере сидя</t>
         </is>
       </c>
-      <c r="BS46" t="inlineStr">
+      <c r="BV46" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT46" t="inlineStr">
+      <c r="BW46" t="inlineStr">
         <is>
           <t>35 кг с повышением</t>
         </is>
       </c>
-      <c r="BU46" t="inlineStr">
+      <c r="BX46" t="inlineStr">
         <is>
           <t>Без рывков!</t>
         </is>
       </c>
-      <c r="BV46" t="inlineStr"/>
-      <c r="BW46" t="inlineStr"/>
-      <c r="BX46" t="inlineStr"/>
-      <c r="BY46" t="inlineStr">
+      <c r="BY46" t="inlineStr"/>
+      <c r="BZ46" t="inlineStr"/>
+      <c r="CA46" t="inlineStr"/>
+      <c r="CB46" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ46" t="inlineStr">
+      <c r="CC46" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA46" t="inlineStr">
+      <c r="CD46" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB46" t="inlineStr">
+      <c r="CE46" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC46" t="inlineStr"/>
+      <c r="CF46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -12843,59 +13275,68 @@
       <c r="BL47" t="n">
         <v>45</v>
       </c>
-      <c r="BM47" t="inlineStr">
+      <c r="BM47" t="n">
+        <v>45</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>45</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>45</v>
+      </c>
+      <c r="BP47" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN47" t="n">
+      <c r="BQ47" t="n">
         <v>3</v>
       </c>
-      <c r="BO47" t="n">
+      <c r="BR47" t="n">
         <v>1</v>
       </c>
-      <c r="BP47" t="inlineStr">
+      <c r="BS47" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ47" t="inlineStr">
+      <c r="BT47" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR47" t="inlineStr">
+      <c r="BU47" t="inlineStr">
         <is>
           <t>Приседания со штангой на спине</t>
         </is>
       </c>
-      <c r="BS47" t="inlineStr">
+      <c r="BV47" t="inlineStr">
         <is>
           <t>6х3</t>
         </is>
       </c>
-      <c r="BT47" t="inlineStr">
+      <c r="BW47" t="inlineStr">
         <is>
           <t>45-50 кг с повышением</t>
         </is>
       </c>
-      <c r="BU47" t="inlineStr">
+      <c r="BX47" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV47" t="inlineStr"/>
-      <c r="BW47" t="inlineStr"/>
-      <c r="BX47" t="inlineStr"/>
       <c r="BY47" t="inlineStr"/>
       <c r="BZ47" t="inlineStr"/>
       <c r="CA47" t="inlineStr"/>
-      <c r="CB47" t="inlineStr">
+      <c r="CB47" t="inlineStr"/>
+      <c r="CC47" t="inlineStr"/>
+      <c r="CD47" t="inlineStr"/>
+      <c r="CE47" t="inlineStr">
         <is>
           <t>120 секунд</t>
         </is>
       </c>
-      <c r="CC47" t="inlineStr"/>
+      <c r="CF47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -13090,67 +13531,76 @@
       <c r="BL48" t="n">
         <v>46</v>
       </c>
-      <c r="BM48" t="inlineStr">
+      <c r="BM48" t="n">
+        <v>46</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>46</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>46</v>
+      </c>
+      <c r="BP48" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN48" t="n">
+      <c r="BQ48" t="n">
         <v>3</v>
       </c>
-      <c r="BO48" t="n">
+      <c r="BR48" t="n">
         <v>1</v>
       </c>
-      <c r="BP48" t="inlineStr">
+      <c r="BS48" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ48" t="inlineStr">
+      <c r="BT48" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR48" t="inlineStr">
+      <c r="BU48" t="inlineStr">
         <is>
           <t>Жим платформы ногами лежа</t>
         </is>
       </c>
-      <c r="BS48" t="inlineStr">
+      <c r="BV48" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT48" t="inlineStr">
+      <c r="BW48" t="inlineStr">
         <is>
           <t>95 кг с повышением</t>
         </is>
       </c>
-      <c r="BU48" t="inlineStr">
+      <c r="BX48" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV48" t="inlineStr"/>
-      <c r="BW48" t="inlineStr"/>
-      <c r="BX48" t="inlineStr"/>
       <c r="BY48" t="inlineStr"/>
-      <c r="BZ48" t="inlineStr">
+      <c r="BZ48" t="inlineStr"/>
+      <c r="CA48" t="inlineStr"/>
+      <c r="CB48" t="inlineStr"/>
+      <c r="CC48" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA48" t="inlineStr">
+      <c r="CD48" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB48" t="inlineStr">
+      <c r="CE48" t="inlineStr">
         <is>
           <t>90-120 секунд</t>
         </is>
       </c>
-      <c r="CC48" t="inlineStr"/>
+      <c r="CF48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -13345,63 +13795,72 @@
       <c r="BL49" t="n">
         <v>47</v>
       </c>
-      <c r="BM49" t="inlineStr">
+      <c r="BM49" t="n">
+        <v>47</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>47</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>47</v>
+      </c>
+      <c r="BP49" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN49" t="n">
+      <c r="BQ49" t="n">
         <v>3</v>
       </c>
-      <c r="BO49" t="n">
+      <c r="BR49" t="n">
         <v>1</v>
       </c>
-      <c r="BP49" t="inlineStr">
+      <c r="BS49" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ49" t="inlineStr">
+      <c r="BT49" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR49" t="inlineStr">
+      <c r="BU49" t="inlineStr">
         <is>
           <t>Жиш штанги лежа на горизонтальной скамье</t>
         </is>
       </c>
-      <c r="BS49" t="inlineStr">
+      <c r="BV49" t="inlineStr">
         <is>
           <t>5х3</t>
         </is>
       </c>
-      <c r="BT49" t="inlineStr">
+      <c r="BW49" t="inlineStr">
         <is>
           <t>50-55 кг с повышением</t>
         </is>
       </c>
-      <c r="BU49" t="inlineStr">
+      <c r="BX49" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV49" t="inlineStr"/>
-      <c r="BW49" t="inlineStr"/>
-      <c r="BX49" t="inlineStr"/>
       <c r="BY49" t="inlineStr"/>
       <c r="BZ49" t="inlineStr"/>
-      <c r="CA49" t="inlineStr">
+      <c r="CA49" t="inlineStr"/>
+      <c r="CB49" t="inlineStr"/>
+      <c r="CC49" t="inlineStr"/>
+      <c r="CD49" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB49" t="inlineStr">
+      <c r="CE49" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC49" t="inlineStr"/>
+      <c r="CF49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -13596,67 +14055,76 @@
       <c r="BL50" t="n">
         <v>48</v>
       </c>
-      <c r="BM50" t="inlineStr">
+      <c r="BM50" t="n">
+        <v>48</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>48</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>48</v>
+      </c>
+      <c r="BP50" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN50" t="n">
+      <c r="BQ50" t="n">
         <v>3</v>
       </c>
-      <c r="BO50" t="n">
+      <c r="BR50" t="n">
         <v>1</v>
       </c>
-      <c r="BP50" t="inlineStr">
+      <c r="BS50" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ50" t="inlineStr">
+      <c r="BT50" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR50" t="inlineStr">
+      <c r="BU50" t="inlineStr">
         <is>
           <t>Жим гантелями лежа на наклонной скамье 30 градусов</t>
         </is>
       </c>
-      <c r="BS50" t="inlineStr">
+      <c r="BV50" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT50" t="inlineStr">
+      <c r="BW50" t="inlineStr">
         <is>
           <t>15-16 кг с повышением</t>
         </is>
       </c>
-      <c r="BU50" t="inlineStr">
+      <c r="BX50" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV50" t="inlineStr"/>
-      <c r="BW50" t="inlineStr"/>
-      <c r="BX50" t="inlineStr"/>
       <c r="BY50" t="inlineStr"/>
-      <c r="BZ50" t="inlineStr">
+      <c r="BZ50" t="inlineStr"/>
+      <c r="CA50" t="inlineStr"/>
+      <c r="CB50" t="inlineStr"/>
+      <c r="CC50" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA50" t="inlineStr">
+      <c r="CD50" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB50" t="inlineStr">
+      <c r="CE50" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC50" t="inlineStr"/>
+      <c r="CF50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -13851,71 +14319,80 @@
       <c r="BL51" t="n">
         <v>49</v>
       </c>
-      <c r="BM51" t="inlineStr">
+      <c r="BM51" t="n">
+        <v>49</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>49</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>49</v>
+      </c>
+      <c r="BP51" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN51" t="n">
+      <c r="BQ51" t="n">
         <v>3</v>
       </c>
-      <c r="BO51" t="n">
+      <c r="BR51" t="n">
         <v>1</v>
       </c>
-      <c r="BP51" t="inlineStr">
+      <c r="BS51" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ51" t="inlineStr">
+      <c r="BT51" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR51" t="inlineStr">
+      <c r="BU51" t="inlineStr">
         <is>
           <t>Отжимания от пола</t>
         </is>
       </c>
-      <c r="BS51" t="inlineStr">
+      <c r="BV51" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT51" t="inlineStr">
+      <c r="BW51" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU51" t="inlineStr">
+      <c r="BX51" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="BV51" t="inlineStr"/>
-      <c r="BW51" t="inlineStr"/>
-      <c r="BX51" t="inlineStr"/>
-      <c r="BY51" t="inlineStr">
+      <c r="BY51" t="inlineStr"/>
+      <c r="BZ51" t="inlineStr"/>
+      <c r="CA51" t="inlineStr"/>
+      <c r="CB51" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ51" t="inlineStr">
+      <c r="CC51" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA51" t="inlineStr">
+      <c r="CD51" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB51" t="inlineStr">
+      <c r="CE51" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC51" t="inlineStr"/>
+      <c r="CF51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -14110,83 +14587,92 @@
       <c r="BL52" t="n">
         <v>50</v>
       </c>
-      <c r="BM52" t="inlineStr">
+      <c r="BM52" t="n">
+        <v>50</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>50</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>50</v>
+      </c>
+      <c r="BP52" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN52" t="n">
+      <c r="BQ52" t="n">
         <v>3</v>
       </c>
-      <c r="BO52" t="n">
+      <c r="BR52" t="n">
         <v>1</v>
       </c>
-      <c r="BP52" t="inlineStr">
+      <c r="BS52" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ52" t="inlineStr">
+      <c r="BT52" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR52" t="inlineStr">
+      <c r="BU52" t="inlineStr">
         <is>
           <t>Прямые скручивания</t>
         </is>
       </c>
-      <c r="BS52" t="inlineStr">
+      <c r="BV52" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="BT52" t="inlineStr">
+      <c r="BW52" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU52" t="inlineStr">
+      <c r="BX52" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BV52" t="inlineStr">
+      <c r="BY52" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BW52" t="inlineStr">
+      <c r="BZ52" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BX52" t="inlineStr">
+      <c r="CA52" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BY52" t="inlineStr">
+      <c r="CB52" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BZ52" t="inlineStr">
+      <c r="CC52" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA52" t="inlineStr">
+      <c r="CD52" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB52" t="inlineStr">
+      <c r="CE52" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="CC52" t="inlineStr"/>
+      <c r="CF52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -14381,71 +14867,80 @@
       <c r="BL53" t="n">
         <v>51</v>
       </c>
-      <c r="BM53" t="inlineStr">
+      <c r="BM53" t="n">
+        <v>51</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>51</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>51</v>
+      </c>
+      <c r="BP53" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN53" t="n">
+      <c r="BQ53" t="n">
         <v>3</v>
       </c>
-      <c r="BO53" t="n">
+      <c r="BR53" t="n">
         <v>2</v>
       </c>
-      <c r="BP53" t="inlineStr">
+      <c r="BS53" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ53" t="inlineStr">
+      <c r="BT53" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR53" t="inlineStr">
+      <c r="BU53" t="inlineStr">
         <is>
           <t>Подтягивания (с резиной/без)</t>
         </is>
       </c>
-      <c r="BS53" t="inlineStr">
+      <c r="BV53" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT53" t="inlineStr">
+      <c r="BW53" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU53" t="inlineStr">
+      <c r="BX53" t="inlineStr">
         <is>
           <t>Средний хват</t>
         </is>
       </c>
-      <c r="BV53" t="inlineStr"/>
-      <c r="BW53" t="inlineStr"/>
-      <c r="BX53" t="inlineStr"/>
-      <c r="BY53" t="inlineStr">
+      <c r="BY53" t="inlineStr"/>
+      <c r="BZ53" t="inlineStr"/>
+      <c r="CA53" t="inlineStr"/>
+      <c r="CB53" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ53" t="inlineStr">
+      <c r="CC53" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA53" t="inlineStr">
+      <c r="CD53" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB53" t="inlineStr">
+      <c r="CE53" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC53" t="inlineStr"/>
+      <c r="CF53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -14640,59 +15135,68 @@
       <c r="BL54" t="n">
         <v>52</v>
       </c>
-      <c r="BM54" t="inlineStr">
+      <c r="BM54" t="n">
+        <v>52</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>52</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>52</v>
+      </c>
+      <c r="BP54" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN54" t="n">
+      <c r="BQ54" t="n">
         <v>3</v>
       </c>
-      <c r="BO54" t="n">
+      <c r="BR54" t="n">
         <v>2</v>
       </c>
-      <c r="BP54" t="inlineStr">
+      <c r="BS54" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ54" t="inlineStr">
+      <c r="BT54" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR54" t="inlineStr">
+      <c r="BU54" t="inlineStr">
         <is>
           <t>Тяга штанги к поясу в наклоне стоя</t>
         </is>
       </c>
-      <c r="BS54" t="inlineStr">
+      <c r="BV54" t="inlineStr">
         <is>
           <t>6х3</t>
         </is>
       </c>
-      <c r="BT54" t="inlineStr">
+      <c r="BW54" t="inlineStr">
         <is>
           <t>45 кг с повышением</t>
         </is>
       </c>
-      <c r="BU54" t="inlineStr">
+      <c r="BX54" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV54" t="inlineStr"/>
-      <c r="BW54" t="inlineStr"/>
-      <c r="BX54" t="inlineStr"/>
       <c r="BY54" t="inlineStr"/>
       <c r="BZ54" t="inlineStr"/>
       <c r="CA54" t="inlineStr"/>
-      <c r="CB54" t="inlineStr">
+      <c r="CB54" t="inlineStr"/>
+      <c r="CC54" t="inlineStr"/>
+      <c r="CD54" t="inlineStr"/>
+      <c r="CE54" t="inlineStr">
         <is>
           <t>90-120 секунд</t>
         </is>
       </c>
-      <c r="CC54" t="inlineStr"/>
+      <c r="CF54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -14887,67 +15391,76 @@
       <c r="BL55" t="n">
         <v>53</v>
       </c>
-      <c r="BM55" t="inlineStr">
+      <c r="BM55" t="n">
+        <v>53</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>53</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>53</v>
+      </c>
+      <c r="BP55" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN55" t="n">
+      <c r="BQ55" t="n">
         <v>3</v>
       </c>
-      <c r="BO55" t="n">
+      <c r="BR55" t="n">
         <v>2</v>
       </c>
-      <c r="BP55" t="inlineStr">
+      <c r="BS55" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ55" t="inlineStr">
+      <c r="BT55" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR55" t="inlineStr">
+      <c r="BU55" t="inlineStr">
         <is>
           <t>Горизонтальная рычажная тяга (узко)</t>
         </is>
       </c>
-      <c r="BS55" t="inlineStr">
+      <c r="BV55" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT55" t="inlineStr">
+      <c r="BW55" t="inlineStr">
         <is>
           <t>25 кг с повышением</t>
         </is>
       </c>
-      <c r="BU55" t="inlineStr">
+      <c r="BX55" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV55" t="inlineStr"/>
-      <c r="BW55" t="inlineStr"/>
-      <c r="BX55" t="inlineStr"/>
       <c r="BY55" t="inlineStr"/>
-      <c r="BZ55" t="inlineStr">
+      <c r="BZ55" t="inlineStr"/>
+      <c r="CA55" t="inlineStr"/>
+      <c r="CB55" t="inlineStr"/>
+      <c r="CC55" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA55" t="inlineStr">
+      <c r="CD55" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB55" t="inlineStr">
+      <c r="CE55" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC55" t="inlineStr"/>
+      <c r="CF55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -15142,67 +15655,76 @@
       <c r="BL56" t="n">
         <v>54</v>
       </c>
-      <c r="BM56" t="inlineStr">
+      <c r="BM56" t="n">
+        <v>54</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>54</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP56" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN56" t="n">
+      <c r="BQ56" t="n">
         <v>3</v>
       </c>
-      <c r="BO56" t="n">
+      <c r="BR56" t="n">
         <v>2</v>
       </c>
-      <c r="BP56" t="inlineStr">
+      <c r="BS56" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ56" t="inlineStr">
+      <c r="BT56" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR56" t="inlineStr">
+      <c r="BU56" t="inlineStr">
         <is>
           <t>Вертикальная тяга верхнего блока к груди узким хватом в блочном тренажере сидя</t>
         </is>
       </c>
-      <c r="BS56" t="inlineStr">
+      <c r="BV56" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT56" t="inlineStr">
+      <c r="BW56" t="inlineStr">
         <is>
           <t>8-9 плиток с повышением</t>
         </is>
       </c>
-      <c r="BU56" t="inlineStr">
+      <c r="BX56" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV56" t="inlineStr"/>
-      <c r="BW56" t="inlineStr"/>
-      <c r="BX56" t="inlineStr"/>
       <c r="BY56" t="inlineStr"/>
-      <c r="BZ56" t="inlineStr">
+      <c r="BZ56" t="inlineStr"/>
+      <c r="CA56" t="inlineStr"/>
+      <c r="CB56" t="inlineStr"/>
+      <c r="CC56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA56" t="inlineStr">
+      <c r="CD56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB56" t="inlineStr">
+      <c r="CE56" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC56" t="inlineStr"/>
+      <c r="CF56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -15397,63 +15919,72 @@
       <c r="BL57" t="n">
         <v>55</v>
       </c>
-      <c r="BM57" t="inlineStr">
+      <c r="BM57" t="n">
+        <v>55</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>55</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>55</v>
+      </c>
+      <c r="BP57" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN57" t="n">
+      <c r="BQ57" t="n">
         <v>3</v>
       </c>
-      <c r="BO57" t="n">
+      <c r="BR57" t="n">
         <v>2</v>
       </c>
-      <c r="BP57" t="inlineStr">
+      <c r="BS57" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ57" t="inlineStr">
+      <c r="BT57" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR57" t="inlineStr">
+      <c r="BU57" t="inlineStr">
         <is>
           <t>Отжимания (брусья)</t>
         </is>
       </c>
-      <c r="BS57" t="inlineStr">
+      <c r="BV57" t="inlineStr">
         <is>
           <t>5х3</t>
         </is>
       </c>
-      <c r="BT57" t="inlineStr">
+      <c r="BW57" t="inlineStr">
         <is>
           <t>15 кг с повышением</t>
         </is>
       </c>
-      <c r="BU57" t="inlineStr">
+      <c r="BX57" t="inlineStr">
         <is>
           <t>Контролируй наклон туловища и локти</t>
         </is>
       </c>
-      <c r="BV57" t="inlineStr"/>
-      <c r="BW57" t="inlineStr"/>
-      <c r="BX57" t="inlineStr"/>
       <c r="BY57" t="inlineStr"/>
       <c r="BZ57" t="inlineStr"/>
-      <c r="CA57" t="inlineStr">
+      <c r="CA57" t="inlineStr"/>
+      <c r="CB57" t="inlineStr"/>
+      <c r="CC57" t="inlineStr"/>
+      <c r="CD57" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB57" t="inlineStr">
+      <c r="CE57" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC57" t="inlineStr"/>
+      <c r="CF57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -15648,67 +16179,76 @@
       <c r="BL58" t="n">
         <v>56</v>
       </c>
-      <c r="BM58" t="inlineStr">
+      <c r="BM58" t="n">
+        <v>56</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>56</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>56</v>
+      </c>
+      <c r="BP58" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN58" t="n">
+      <c r="BQ58" t="n">
         <v>3</v>
       </c>
-      <c r="BO58" t="n">
+      <c r="BR58" t="n">
         <v>2</v>
       </c>
-      <c r="BP58" t="inlineStr">
+      <c r="BS58" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ58" t="inlineStr">
+      <c r="BT58" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR58" t="inlineStr">
+      <c r="BU58" t="inlineStr">
         <is>
           <t>Сгибание со штангой на бицепс стоя</t>
         </is>
       </c>
-      <c r="BS58" t="inlineStr">
+      <c r="BV58" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT58" t="inlineStr">
+      <c r="BW58" t="inlineStr">
         <is>
           <t>25 кг</t>
         </is>
       </c>
-      <c r="BU58" t="inlineStr">
+      <c r="BX58" t="inlineStr">
         <is>
           <t>Контроль локтей</t>
         </is>
       </c>
-      <c r="BV58" t="inlineStr"/>
-      <c r="BW58" t="inlineStr"/>
-      <c r="BX58" t="inlineStr"/>
       <c r="BY58" t="inlineStr"/>
-      <c r="BZ58" t="inlineStr">
+      <c r="BZ58" t="inlineStr"/>
+      <c r="CA58" t="inlineStr"/>
+      <c r="CB58" t="inlineStr"/>
+      <c r="CC58" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA58" t="inlineStr">
+      <c r="CD58" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB58" t="inlineStr">
+      <c r="CE58" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC58" t="inlineStr"/>
+      <c r="CF58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -15903,83 +16443,92 @@
       <c r="BL59" t="n">
         <v>57</v>
       </c>
-      <c r="BM59" t="inlineStr">
+      <c r="BM59" t="n">
+        <v>57</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>57</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>57</v>
+      </c>
+      <c r="BP59" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN59" t="n">
+      <c r="BQ59" t="n">
         <v>3</v>
       </c>
-      <c r="BO59" t="n">
+      <c r="BR59" t="n">
         <v>2</v>
       </c>
-      <c r="BP59" t="inlineStr">
+      <c r="BS59" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ59" t="inlineStr">
+      <c r="BT59" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR59" t="inlineStr">
+      <c r="BU59" t="inlineStr">
         <is>
           <t>Прямые скручивания</t>
         </is>
       </c>
-      <c r="BS59" t="inlineStr">
+      <c r="BV59" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="BT59" t="inlineStr">
+      <c r="BW59" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU59" t="inlineStr">
+      <c r="BX59" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BV59" t="inlineStr">
+      <c r="BY59" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BW59" t="inlineStr">
+      <c r="BZ59" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BX59" t="inlineStr">
+      <c r="CA59" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BY59" t="inlineStr">
+      <c r="CB59" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BZ59" t="inlineStr">
+      <c r="CC59" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA59" t="inlineStr">
+      <c r="CD59" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB59" t="inlineStr">
+      <c r="CE59" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="CC59" t="inlineStr"/>
+      <c r="CF59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -16174,71 +16723,80 @@
       <c r="BL60" t="n">
         <v>58</v>
       </c>
-      <c r="BM60" t="inlineStr">
+      <c r="BM60" t="n">
+        <v>58</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>58</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>58</v>
+      </c>
+      <c r="BP60" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN60" t="n">
+      <c r="BQ60" t="n">
         <v>3</v>
       </c>
-      <c r="BO60" t="n">
+      <c r="BR60" t="n">
         <v>3</v>
       </c>
-      <c r="BP60" t="inlineStr">
+      <c r="BS60" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ60" t="inlineStr">
+      <c r="BT60" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR60" t="inlineStr">
+      <c r="BU60" t="inlineStr">
         <is>
           <t>Сгибание голени в тренажере лежа</t>
         </is>
       </c>
-      <c r="BS60" t="inlineStr">
+      <c r="BV60" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT60" t="inlineStr">
+      <c r="BW60" t="inlineStr">
         <is>
           <t>35 кг с повышением</t>
         </is>
       </c>
-      <c r="BU60" t="inlineStr">
+      <c r="BX60" t="inlineStr">
         <is>
           <t>Без рывков!</t>
         </is>
       </c>
-      <c r="BV60" t="inlineStr"/>
-      <c r="BW60" t="inlineStr"/>
-      <c r="BX60" t="inlineStr"/>
-      <c r="BY60" t="inlineStr">
+      <c r="BY60" t="inlineStr"/>
+      <c r="BZ60" t="inlineStr"/>
+      <c r="CA60" t="inlineStr"/>
+      <c r="CB60" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ60" t="inlineStr">
+      <c r="CC60" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA60" t="inlineStr">
+      <c r="CD60" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB60" t="inlineStr">
+      <c r="CE60" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC60" t="inlineStr"/>
+      <c r="CF60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -16433,59 +16991,68 @@
       <c r="BL61" t="n">
         <v>59</v>
       </c>
-      <c r="BM61" t="inlineStr">
+      <c r="BM61" t="n">
+        <v>59</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>59</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>59</v>
+      </c>
+      <c r="BP61" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN61" t="n">
+      <c r="BQ61" t="n">
         <v>3</v>
       </c>
-      <c r="BO61" t="n">
+      <c r="BR61" t="n">
         <v>3</v>
       </c>
-      <c r="BP61" t="inlineStr">
+      <c r="BS61" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ61" t="inlineStr">
+      <c r="BT61" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR61" t="inlineStr">
+      <c r="BU61" t="inlineStr">
         <is>
           <t>Тяга штанги на согнутых ногах стоя (ягодицы)</t>
         </is>
       </c>
-      <c r="BS61" t="inlineStr">
+      <c r="BV61" t="inlineStr">
         <is>
           <t>6х3</t>
         </is>
       </c>
-      <c r="BT61" t="inlineStr">
+      <c r="BW61" t="inlineStr">
         <is>
           <t>60 кг с повышением</t>
         </is>
       </c>
-      <c r="BU61" t="inlineStr">
+      <c r="BX61" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV61" t="inlineStr"/>
-      <c r="BW61" t="inlineStr"/>
-      <c r="BX61" t="inlineStr"/>
       <c r="BY61" t="inlineStr"/>
       <c r="BZ61" t="inlineStr"/>
       <c r="CA61" t="inlineStr"/>
-      <c r="CB61" t="inlineStr">
+      <c r="CB61" t="inlineStr"/>
+      <c r="CC61" t="inlineStr"/>
+      <c r="CD61" t="inlineStr"/>
+      <c r="CE61" t="inlineStr">
         <is>
           <t>120 секунд</t>
         </is>
       </c>
-      <c r="CC61" t="inlineStr"/>
+      <c r="CF61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -16680,67 +17247,76 @@
       <c r="BL62" t="n">
         <v>60</v>
       </c>
-      <c r="BM62" t="inlineStr">
+      <c r="BM62" t="n">
+        <v>60</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>60</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>60</v>
+      </c>
+      <c r="BP62" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN62" t="n">
+      <c r="BQ62" t="n">
         <v>3</v>
       </c>
-      <c r="BO62" t="n">
+      <c r="BR62" t="n">
         <v>3</v>
       </c>
-      <c r="BP62" t="inlineStr">
+      <c r="BS62" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ62" t="inlineStr">
+      <c r="BT62" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR62" t="inlineStr">
+      <c r="BU62" t="inlineStr">
         <is>
           <t>Разгибание туловища (ягодицы)</t>
         </is>
       </c>
-      <c r="BS62" t="inlineStr">
+      <c r="BV62" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT62" t="inlineStr">
+      <c r="BW62" t="inlineStr">
         <is>
           <t>15 кг с повышением</t>
         </is>
       </c>
-      <c r="BU62" t="inlineStr">
+      <c r="BX62" t="inlineStr">
         <is>
           <t>Держи поясницу прогнутой/работай через таз/Опускай чуть ниже колена</t>
         </is>
       </c>
-      <c r="BV62" t="inlineStr"/>
-      <c r="BW62" t="inlineStr"/>
-      <c r="BX62" t="inlineStr"/>
       <c r="BY62" t="inlineStr"/>
-      <c r="BZ62" t="inlineStr">
+      <c r="BZ62" t="inlineStr"/>
+      <c r="CA62" t="inlineStr"/>
+      <c r="CB62" t="inlineStr"/>
+      <c r="CC62" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA62" t="inlineStr">
+      <c r="CD62" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB62" t="inlineStr">
+      <c r="CE62" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC62" t="inlineStr"/>
+      <c r="CF62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -16935,63 +17511,72 @@
       <c r="BL63" t="n">
         <v>61</v>
       </c>
-      <c r="BM63" t="inlineStr">
+      <c r="BM63" t="n">
+        <v>61</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>61</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>61</v>
+      </c>
+      <c r="BP63" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN63" t="n">
+      <c r="BQ63" t="n">
         <v>3</v>
       </c>
-      <c r="BO63" t="n">
+      <c r="BR63" t="n">
         <v>3</v>
       </c>
-      <c r="BP63" t="inlineStr">
+      <c r="BS63" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ63" t="inlineStr">
+      <c r="BT63" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR63" t="inlineStr">
+      <c r="BU63" t="inlineStr">
         <is>
           <t>Жим штанги лежа на наклонной скамье 30 градусов</t>
         </is>
       </c>
-      <c r="BS63" t="inlineStr">
+      <c r="BV63" t="inlineStr">
         <is>
           <t>5х3</t>
         </is>
       </c>
-      <c r="BT63" t="inlineStr">
+      <c r="BW63" t="inlineStr">
         <is>
           <t>50 кг с повышением</t>
         </is>
       </c>
-      <c r="BU63" t="inlineStr">
+      <c r="BX63" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV63" t="inlineStr"/>
-      <c r="BW63" t="inlineStr"/>
-      <c r="BX63" t="inlineStr"/>
       <c r="BY63" t="inlineStr"/>
       <c r="BZ63" t="inlineStr"/>
-      <c r="CA63" t="inlineStr">
+      <c r="CA63" t="inlineStr"/>
+      <c r="CB63" t="inlineStr"/>
+      <c r="CC63" t="inlineStr"/>
+      <c r="CD63" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB63" t="inlineStr">
+      <c r="CE63" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC63" t="inlineStr"/>
+      <c r="CF63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -17186,67 +17771,76 @@
       <c r="BL64" t="n">
         <v>62</v>
       </c>
-      <c r="BM64" t="inlineStr">
+      <c r="BM64" t="n">
+        <v>62</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>62</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>62</v>
+      </c>
+      <c r="BP64" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN64" t="n">
+      <c r="BQ64" t="n">
         <v>3</v>
       </c>
-      <c r="BO64" t="n">
+      <c r="BR64" t="n">
         <v>3</v>
       </c>
-      <c r="BP64" t="inlineStr">
+      <c r="BS64" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ64" t="inlineStr">
+      <c r="BT64" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR64" t="inlineStr">
+      <c r="BU64" t="inlineStr">
         <is>
           <t>Жим гантелей лежа на горизонтальной скамье</t>
         </is>
       </c>
-      <c r="BS64" t="inlineStr">
+      <c r="BV64" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT64" t="inlineStr">
+      <c r="BW64" t="inlineStr">
         <is>
           <t>15-16 кг с повышением</t>
         </is>
       </c>
-      <c r="BU64" t="inlineStr">
+      <c r="BX64" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV64" t="inlineStr"/>
-      <c r="BW64" t="inlineStr"/>
-      <c r="BX64" t="inlineStr"/>
       <c r="BY64" t="inlineStr"/>
-      <c r="BZ64" t="inlineStr">
+      <c r="BZ64" t="inlineStr"/>
+      <c r="CA64" t="inlineStr"/>
+      <c r="CB64" t="inlineStr"/>
+      <c r="CC64" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA64" t="inlineStr">
+      <c r="CD64" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB64" t="inlineStr">
+      <c r="CE64" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC64" t="inlineStr"/>
+      <c r="CF64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -17441,71 +18035,80 @@
       <c r="BL65" t="n">
         <v>63</v>
       </c>
-      <c r="BM65" t="inlineStr">
+      <c r="BM65" t="n">
+        <v>63</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>63</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>63</v>
+      </c>
+      <c r="BP65" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN65" t="n">
+      <c r="BQ65" t="n">
         <v>3</v>
       </c>
-      <c r="BO65" t="n">
+      <c r="BR65" t="n">
         <v>3</v>
       </c>
-      <c r="BP65" t="inlineStr">
+      <c r="BS65" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ65" t="inlineStr">
+      <c r="BT65" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR65" t="inlineStr">
+      <c r="BU65" t="inlineStr">
         <is>
           <t>Обратные отжимания от скамьи</t>
         </is>
       </c>
-      <c r="BS65" t="inlineStr">
+      <c r="BV65" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT65" t="inlineStr">
+      <c r="BW65" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU65" t="inlineStr">
+      <c r="BX65" t="inlineStr">
         <is>
           <t>Спиной к скамье, руки чуть шире плеч/Туловище перемещается вверх вниз, локти вдоль туловища</t>
         </is>
       </c>
-      <c r="BV65" t="inlineStr"/>
-      <c r="BW65" t="inlineStr"/>
-      <c r="BX65" t="inlineStr"/>
-      <c r="BY65" t="inlineStr">
+      <c r="BY65" t="inlineStr"/>
+      <c r="BZ65" t="inlineStr"/>
+      <c r="CA65" t="inlineStr"/>
+      <c r="CB65" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ65" t="inlineStr">
+      <c r="CC65" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA65" t="inlineStr">
+      <c r="CD65" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB65" t="inlineStr">
+      <c r="CE65" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC65" t="inlineStr"/>
+      <c r="CF65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -17700,83 +18303,92 @@
       <c r="BL66" t="n">
         <v>64</v>
       </c>
-      <c r="BM66" t="inlineStr">
+      <c r="BM66" t="n">
+        <v>64</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>64</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>64</v>
+      </c>
+      <c r="BP66" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN66" t="n">
+      <c r="BQ66" t="n">
         <v>3</v>
       </c>
-      <c r="BO66" t="n">
+      <c r="BR66" t="n">
         <v>3</v>
       </c>
-      <c r="BP66" t="inlineStr">
+      <c r="BS66" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ66" t="inlineStr">
+      <c r="BT66" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="BR66" t="inlineStr">
+      <c r="BU66" t="inlineStr">
         <is>
           <t>Прямые скручивания</t>
         </is>
       </c>
-      <c r="BS66" t="inlineStr">
+      <c r="BV66" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="BT66" t="inlineStr">
+      <c r="BW66" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU66" t="inlineStr">
+      <c r="BX66" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BV66" t="inlineStr">
+      <c r="BY66" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BW66" t="inlineStr">
+      <c r="BZ66" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BX66" t="inlineStr">
+      <c r="CA66" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BY66" t="inlineStr">
+      <c r="CB66" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BZ66" t="inlineStr">
+      <c r="CC66" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA66" t="inlineStr">
+      <c r="CD66" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB66" t="inlineStr">
+      <c r="CE66" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="CC66" t="inlineStr"/>
+      <c r="CF66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -17971,87 +18583,96 @@
       <c r="BL67" t="n">
         <v>65</v>
       </c>
-      <c r="BM67" t="inlineStr">
+      <c r="BM67" t="n">
+        <v>65</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>65</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>65</v>
+      </c>
+      <c r="BP67" t="inlineStr">
         <is>
           <t>месяц</t>
         </is>
       </c>
-      <c r="BN67" t="inlineStr">
+      <c r="BQ67" t="inlineStr">
         <is>
           <t>Неделя</t>
         </is>
       </c>
-      <c r="BO67" t="inlineStr">
+      <c r="BR67" t="inlineStr">
         <is>
           <t>Тренировка</t>
         </is>
       </c>
-      <c r="BP67" t="inlineStr">
+      <c r="BS67" t="inlineStr">
         <is>
           <t>Повторы/% от ПМ</t>
         </is>
       </c>
-      <c r="BQ67" t="inlineStr">
+      <c r="BT67" t="inlineStr">
         <is>
           <t>Мышечные группы</t>
         </is>
       </c>
-      <c r="BR67" t="inlineStr">
+      <c r="BU67" t="inlineStr">
         <is>
           <t>Упражнения</t>
         </is>
       </c>
-      <c r="BS67" t="inlineStr">
+      <c r="BV67" t="inlineStr">
         <is>
           <t>Количество подходов/повторений</t>
         </is>
       </c>
-      <c r="BT67" t="inlineStr">
+      <c r="BW67" t="inlineStr">
         <is>
           <t>Рабочий вес</t>
         </is>
       </c>
-      <c r="BU67" t="inlineStr">
+      <c r="BX67" t="inlineStr">
         <is>
           <t>Комментарии</t>
         </is>
       </c>
-      <c r="BV67" t="inlineStr">
+      <c r="BY67" t="inlineStr">
         <is>
           <t>1 подход</t>
         </is>
       </c>
-      <c r="BW67" t="inlineStr">
+      <c r="BZ67" t="inlineStr">
         <is>
           <t>2 подход</t>
         </is>
       </c>
-      <c r="BX67" t="inlineStr">
+      <c r="CA67" t="inlineStr">
         <is>
           <t>3 подход</t>
         </is>
       </c>
-      <c r="BY67" t="inlineStr">
+      <c r="CB67" t="inlineStr">
         <is>
           <t>4 подход</t>
         </is>
       </c>
-      <c r="BZ67" t="inlineStr">
+      <c r="CC67" t="inlineStr">
         <is>
           <t>5 подход</t>
         </is>
       </c>
-      <c r="CA67" t="inlineStr">
+      <c r="CD67" t="inlineStr">
         <is>
           <t>6 подход</t>
         </is>
       </c>
-      <c r="CB67" t="inlineStr">
+      <c r="CE67" t="inlineStr">
         <is>
           <t>Отдых между подходами</t>
         </is>
       </c>
-      <c r="CC67" t="inlineStr"/>
+      <c r="CF67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -18246,59 +18867,68 @@
       <c r="BL68" t="n">
         <v>66</v>
       </c>
-      <c r="BM68" t="inlineStr">
+      <c r="BM68" t="n">
+        <v>66</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>66</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>66</v>
+      </c>
+      <c r="BP68" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN68" t="n">
+      <c r="BQ68" t="n">
         <v>4</v>
       </c>
-      <c r="BO68" t="n">
+      <c r="BR68" t="n">
         <v>1</v>
       </c>
-      <c r="BP68" t="inlineStr">
+      <c r="BS68" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ68" t="inlineStr">
+      <c r="BT68" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR68" t="inlineStr">
+      <c r="BU68" t="inlineStr">
         <is>
           <t>Становая тяга классическая с плинтов</t>
         </is>
       </c>
-      <c r="BS68" t="inlineStr">
+      <c r="BV68" t="inlineStr">
         <is>
           <t>6х3</t>
         </is>
       </c>
-      <c r="BT68" t="inlineStr">
+      <c r="BW68" t="inlineStr">
         <is>
           <t>60 кг с повышением</t>
         </is>
       </c>
-      <c r="BU68" t="inlineStr">
+      <c r="BX68" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV68" t="inlineStr"/>
-      <c r="BW68" t="inlineStr"/>
-      <c r="BX68" t="inlineStr"/>
       <c r="BY68" t="inlineStr"/>
       <c r="BZ68" t="inlineStr"/>
       <c r="CA68" t="inlineStr"/>
-      <c r="CB68" t="inlineStr">
+      <c r="CB68" t="inlineStr"/>
+      <c r="CC68" t="inlineStr"/>
+      <c r="CD68" t="inlineStr"/>
+      <c r="CE68" t="inlineStr">
         <is>
           <t>120 секунд</t>
         </is>
       </c>
-      <c r="CC68" t="inlineStr"/>
+      <c r="CF68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -18493,67 +19123,76 @@
       <c r="BL69" t="n">
         <v>67</v>
       </c>
-      <c r="BM69" t="inlineStr">
+      <c r="BM69" t="n">
+        <v>67</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>67</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>67</v>
+      </c>
+      <c r="BP69" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN69" t="n">
+      <c r="BQ69" t="n">
         <v>4</v>
       </c>
-      <c r="BO69" t="n">
+      <c r="BR69" t="n">
         <v>1</v>
       </c>
-      <c r="BP69" t="inlineStr">
+      <c r="BS69" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ69" t="inlineStr">
+      <c r="BT69" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR69" t="inlineStr">
+      <c r="BU69" t="inlineStr">
         <is>
           <t>Тяга штанги к поясу в наклоне стоя</t>
         </is>
       </c>
-      <c r="BS69" t="inlineStr">
+      <c r="BV69" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT69" t="inlineStr">
+      <c r="BW69" t="inlineStr">
         <is>
           <t>40-45 кг с повышением</t>
         </is>
       </c>
-      <c r="BU69" t="inlineStr">
+      <c r="BX69" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV69" t="inlineStr"/>
-      <c r="BW69" t="inlineStr"/>
-      <c r="BX69" t="inlineStr"/>
       <c r="BY69" t="inlineStr"/>
-      <c r="BZ69" t="inlineStr">
+      <c r="BZ69" t="inlineStr"/>
+      <c r="CA69" t="inlineStr"/>
+      <c r="CB69" t="inlineStr"/>
+      <c r="CC69" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA69" t="inlineStr">
+      <c r="CD69" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB69" t="inlineStr">
+      <c r="CE69" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC69" t="inlineStr"/>
+      <c r="CF69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -18748,67 +19387,76 @@
       <c r="BL70" t="n">
         <v>68</v>
       </c>
-      <c r="BM70" t="inlineStr">
+      <c r="BM70" t="n">
+        <v>68</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>68</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>68</v>
+      </c>
+      <c r="BP70" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN70" t="n">
+      <c r="BQ70" t="n">
         <v>4</v>
       </c>
-      <c r="BO70" t="n">
+      <c r="BR70" t="n">
         <v>1</v>
       </c>
-      <c r="BP70" t="inlineStr">
+      <c r="BS70" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ70" t="inlineStr">
+      <c r="BT70" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR70" t="inlineStr">
+      <c r="BU70" t="inlineStr">
         <is>
           <t>Горизонтальная тяга нижнего блока к поясу узким хватом в блочном тренажере сидя</t>
         </is>
       </c>
-      <c r="BS70" t="inlineStr">
+      <c r="BV70" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT70" t="inlineStr">
+      <c r="BW70" t="inlineStr">
         <is>
           <t>8 плиток с повышением</t>
         </is>
       </c>
-      <c r="BU70" t="inlineStr">
+      <c r="BX70" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="BV70" t="inlineStr"/>
-      <c r="BW70" t="inlineStr"/>
-      <c r="BX70" t="inlineStr"/>
       <c r="BY70" t="inlineStr"/>
-      <c r="BZ70" t="inlineStr">
+      <c r="BZ70" t="inlineStr"/>
+      <c r="CA70" t="inlineStr"/>
+      <c r="CB70" t="inlineStr"/>
+      <c r="CC70" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA70" t="inlineStr">
+      <c r="CD70" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB70" t="inlineStr">
+      <c r="CE70" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC70" t="inlineStr"/>
+      <c r="CF70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -19003,67 +19651,76 @@
       <c r="BL71" t="n">
         <v>69</v>
       </c>
-      <c r="BM71" t="inlineStr">
+      <c r="BM71" t="n">
+        <v>69</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>69</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>69</v>
+      </c>
+      <c r="BP71" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN71" t="n">
+      <c r="BQ71" t="n">
         <v>4</v>
       </c>
-      <c r="BO71" t="n">
+      <c r="BR71" t="n">
         <v>1</v>
       </c>
-      <c r="BP71" t="inlineStr">
+      <c r="BS71" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ71" t="inlineStr">
+      <c r="BT71" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR71" t="inlineStr">
+      <c r="BU71" t="inlineStr">
         <is>
           <t>Отжимания (брусья)</t>
         </is>
       </c>
-      <c r="BS71" t="inlineStr">
+      <c r="BV71" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT71" t="inlineStr">
+      <c r="BW71" t="inlineStr">
         <is>
           <t>10-15 кг с повышением</t>
         </is>
       </c>
-      <c r="BU71" t="inlineStr">
+      <c r="BX71" t="inlineStr">
         <is>
           <t>Контролируй наклон туловища и локти</t>
         </is>
       </c>
-      <c r="BV71" t="inlineStr"/>
-      <c r="BW71" t="inlineStr"/>
-      <c r="BX71" t="inlineStr"/>
       <c r="BY71" t="inlineStr"/>
-      <c r="BZ71" t="inlineStr">
+      <c r="BZ71" t="inlineStr"/>
+      <c r="CA71" t="inlineStr"/>
+      <c r="CB71" t="inlineStr"/>
+      <c r="CC71" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA71" t="inlineStr">
+      <c r="CD71" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB71" t="inlineStr">
+      <c r="CE71" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC71" t="inlineStr"/>
+      <c r="CF71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -19258,67 +19915,76 @@
       <c r="BL72" t="n">
         <v>70</v>
       </c>
-      <c r="BM72" t="inlineStr">
+      <c r="BM72" t="n">
+        <v>70</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>70</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>70</v>
+      </c>
+      <c r="BP72" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN72" t="n">
+      <c r="BQ72" t="n">
         <v>4</v>
       </c>
-      <c r="BO72" t="n">
+      <c r="BR72" t="n">
         <v>1</v>
       </c>
-      <c r="BP72" t="inlineStr">
+      <c r="BS72" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ72" t="inlineStr">
+      <c r="BT72" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR72" t="inlineStr">
+      <c r="BU72" t="inlineStr">
         <is>
           <t>Сгибание со штангой на бицепс стоя</t>
         </is>
       </c>
-      <c r="BS72" t="inlineStr">
+      <c r="BV72" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT72" t="inlineStr">
+      <c r="BW72" t="inlineStr">
         <is>
           <t>25 кг</t>
         </is>
       </c>
-      <c r="BU72" t="inlineStr">
+      <c r="BX72" t="inlineStr">
         <is>
           <t>Контроль локтей</t>
         </is>
       </c>
-      <c r="BV72" t="inlineStr"/>
-      <c r="BW72" t="inlineStr"/>
-      <c r="BX72" t="inlineStr"/>
       <c r="BY72" t="inlineStr"/>
-      <c r="BZ72" t="inlineStr">
+      <c r="BZ72" t="inlineStr"/>
+      <c r="CA72" t="inlineStr"/>
+      <c r="CB72" t="inlineStr"/>
+      <c r="CC72" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA72" t="inlineStr">
+      <c r="CD72" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB72" t="inlineStr">
+      <c r="CE72" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC72" t="inlineStr"/>
+      <c r="CF72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -19513,71 +20179,80 @@
       <c r="BL73" t="n">
         <v>71</v>
       </c>
-      <c r="BM73" t="inlineStr">
+      <c r="BM73" t="n">
+        <v>71</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>71</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>71</v>
+      </c>
+      <c r="BP73" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN73" t="n">
+      <c r="BQ73" t="n">
         <v>4</v>
       </c>
-      <c r="BO73" t="n">
+      <c r="BR73" t="n">
         <v>1</v>
       </c>
-      <c r="BP73" t="inlineStr">
+      <c r="BS73" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ73" t="inlineStr">
+      <c r="BT73" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR73" t="inlineStr">
+      <c r="BU73" t="inlineStr">
         <is>
           <t>Отжимания от пола (узко)</t>
         </is>
       </c>
-      <c r="BS73" t="inlineStr">
+      <c r="BV73" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT73" t="inlineStr">
+      <c r="BW73" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU73" t="inlineStr">
+      <c r="BX73" t="inlineStr">
         <is>
           <t>Локти вдоль туловища</t>
         </is>
       </c>
-      <c r="BV73" t="inlineStr"/>
-      <c r="BW73" t="inlineStr"/>
-      <c r="BX73" t="inlineStr"/>
-      <c r="BY73" t="inlineStr">
+      <c r="BY73" t="inlineStr"/>
+      <c r="BZ73" t="inlineStr"/>
+      <c r="CA73" t="inlineStr"/>
+      <c r="CB73" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ73" t="inlineStr">
+      <c r="CC73" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA73" t="inlineStr">
+      <c r="CD73" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB73" t="inlineStr">
+      <c r="CE73" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC73" t="inlineStr"/>
+      <c r="CF73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -19772,83 +20447,92 @@
       <c r="BL74" t="n">
         <v>72</v>
       </c>
-      <c r="BM74" t="inlineStr">
+      <c r="BM74" t="n">
+        <v>72</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>72</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>72</v>
+      </c>
+      <c r="BP74" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN74" t="n">
+      <c r="BQ74" t="n">
         <v>4</v>
       </c>
-      <c r="BO74" t="n">
+      <c r="BR74" t="n">
         <v>1</v>
       </c>
-      <c r="BP74" t="inlineStr">
+      <c r="BS74" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ74" t="inlineStr">
+      <c r="BT74" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR74" t="inlineStr">
+      <c r="BU74" t="inlineStr">
         <is>
           <t>Прямые скручивания</t>
         </is>
       </c>
-      <c r="BS74" t="inlineStr">
+      <c r="BV74" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="BT74" t="inlineStr">
+      <c r="BW74" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU74" t="inlineStr">
+      <c r="BX74" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BV74" t="inlineStr">
+      <c r="BY74" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BW74" t="inlineStr">
+      <c r="BZ74" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BX74" t="inlineStr">
+      <c r="CA74" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BY74" t="inlineStr">
+      <c r="CB74" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BZ74" t="inlineStr">
+      <c r="CC74" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA74" t="inlineStr">
+      <c r="CD74" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB74" t="inlineStr">
+      <c r="CE74" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="CC74" t="inlineStr"/>
+      <c r="CF74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -20043,59 +20727,68 @@
       <c r="BL75" t="n">
         <v>73</v>
       </c>
-      <c r="BM75" t="inlineStr">
+      <c r="BM75" t="n">
+        <v>73</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>73</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>73</v>
+      </c>
+      <c r="BP75" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN75" t="n">
+      <c r="BQ75" t="n">
         <v>4</v>
       </c>
-      <c r="BO75" t="n">
+      <c r="BR75" t="n">
         <v>2</v>
       </c>
-      <c r="BP75" t="inlineStr">
+      <c r="BS75" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ75" t="inlineStr">
+      <c r="BT75" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR75" t="inlineStr">
+      <c r="BU75" t="inlineStr">
         <is>
           <t>Приседания со штангой на спине</t>
         </is>
       </c>
-      <c r="BS75" t="inlineStr">
+      <c r="BV75" t="inlineStr">
         <is>
           <t>6х3</t>
         </is>
       </c>
-      <c r="BT75" t="inlineStr">
+      <c r="BW75" t="inlineStr">
         <is>
           <t>50-55 кг с повышением</t>
         </is>
       </c>
-      <c r="BU75" t="inlineStr">
+      <c r="BX75" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV75" t="inlineStr"/>
-      <c r="BW75" t="inlineStr"/>
-      <c r="BX75" t="inlineStr"/>
       <c r="BY75" t="inlineStr"/>
       <c r="BZ75" t="inlineStr"/>
       <c r="CA75" t="inlineStr"/>
-      <c r="CB75" t="inlineStr">
+      <c r="CB75" t="inlineStr"/>
+      <c r="CC75" t="inlineStr"/>
+      <c r="CD75" t="inlineStr"/>
+      <c r="CE75" t="inlineStr">
         <is>
           <t>120 секунд</t>
         </is>
       </c>
-      <c r="CC75" t="inlineStr"/>
+      <c r="CF75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -20290,67 +20983,76 @@
       <c r="BL76" t="n">
         <v>74</v>
       </c>
-      <c r="BM76" t="inlineStr">
+      <c r="BM76" t="n">
+        <v>74</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>74</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>74</v>
+      </c>
+      <c r="BP76" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN76" t="n">
+      <c r="BQ76" t="n">
         <v>4</v>
       </c>
-      <c r="BO76" t="n">
+      <c r="BR76" t="n">
         <v>2</v>
       </c>
-      <c r="BP76" t="inlineStr">
+      <c r="BS76" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ76" t="inlineStr">
+      <c r="BT76" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR76" t="inlineStr">
+      <c r="BU76" t="inlineStr">
         <is>
           <t>Гакк-приседания (широко)</t>
         </is>
       </c>
-      <c r="BS76" t="inlineStr">
+      <c r="BV76" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT76" t="inlineStr">
+      <c r="BW76" t="inlineStr">
         <is>
           <t>30 кг с повышением</t>
         </is>
       </c>
-      <c r="BU76" t="inlineStr">
+      <c r="BX76" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV76" t="inlineStr"/>
-      <c r="BW76" t="inlineStr"/>
-      <c r="BX76" t="inlineStr"/>
       <c r="BY76" t="inlineStr"/>
-      <c r="BZ76" t="inlineStr">
+      <c r="BZ76" t="inlineStr"/>
+      <c r="CA76" t="inlineStr"/>
+      <c r="CB76" t="inlineStr"/>
+      <c r="CC76" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA76" t="inlineStr">
+      <c r="CD76" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB76" t="inlineStr">
+      <c r="CE76" t="inlineStr">
         <is>
           <t>90-120 секунд</t>
         </is>
       </c>
-      <c r="CC76" t="inlineStr"/>
+      <c r="CF76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -20545,67 +21247,76 @@
       <c r="BL77" t="n">
         <v>75</v>
       </c>
-      <c r="BM77" t="inlineStr">
+      <c r="BM77" t="n">
+        <v>75</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>75</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>75</v>
+      </c>
+      <c r="BP77" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN77" t="n">
+      <c r="BQ77" t="n">
         <v>4</v>
       </c>
-      <c r="BO77" t="n">
+      <c r="BR77" t="n">
         <v>2</v>
       </c>
-      <c r="BP77" t="inlineStr">
+      <c r="BS77" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ77" t="inlineStr">
+      <c r="BT77" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR77" t="inlineStr">
+      <c r="BU77" t="inlineStr">
         <is>
           <t>Разгибание туловища (ягодицы)</t>
         </is>
       </c>
-      <c r="BS77" t="inlineStr">
+      <c r="BV77" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT77" t="inlineStr">
+      <c r="BW77" t="inlineStr">
         <is>
           <t>15 кг с повышением</t>
         </is>
       </c>
-      <c r="BU77" t="inlineStr">
+      <c r="BX77" t="inlineStr">
         <is>
           <t>Работай через таз/Контроль поясницы</t>
         </is>
       </c>
-      <c r="BV77" t="inlineStr"/>
-      <c r="BW77" t="inlineStr"/>
-      <c r="BX77" t="inlineStr"/>
       <c r="BY77" t="inlineStr"/>
-      <c r="BZ77" t="inlineStr">
+      <c r="BZ77" t="inlineStr"/>
+      <c r="CA77" t="inlineStr"/>
+      <c r="CB77" t="inlineStr"/>
+      <c r="CC77" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA77" t="inlineStr">
+      <c r="CD77" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB77" t="inlineStr">
+      <c r="CE77" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC77" t="inlineStr"/>
+      <c r="CF77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -20800,67 +21511,76 @@
       <c r="BL78" t="n">
         <v>76</v>
       </c>
-      <c r="BM78" t="inlineStr">
+      <c r="BM78" t="n">
+        <v>76</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>76</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>76</v>
+      </c>
+      <c r="BP78" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN78" t="n">
+      <c r="BQ78" t="n">
         <v>4</v>
       </c>
-      <c r="BO78" t="n">
+      <c r="BR78" t="n">
         <v>2</v>
       </c>
-      <c r="BP78" t="inlineStr">
+      <c r="BS78" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ78" t="inlineStr">
+      <c r="BT78" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR78" t="inlineStr">
+      <c r="BU78" t="inlineStr">
         <is>
           <t>Жиш штанги лежа на горизонтальной скамье</t>
         </is>
       </c>
-      <c r="BS78" t="inlineStr">
+      <c r="BV78" t="inlineStr">
         <is>
           <t>4х3</t>
         </is>
       </c>
-      <c r="BT78" t="inlineStr">
+      <c r="BW78" t="inlineStr">
         <is>
           <t>55 кг с повышением</t>
         </is>
       </c>
-      <c r="BU78" t="inlineStr">
+      <c r="BX78" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV78" t="inlineStr"/>
-      <c r="BW78" t="inlineStr"/>
-      <c r="BX78" t="inlineStr"/>
       <c r="BY78" t="inlineStr"/>
-      <c r="BZ78" t="inlineStr">
+      <c r="BZ78" t="inlineStr"/>
+      <c r="CA78" t="inlineStr"/>
+      <c r="CB78" t="inlineStr"/>
+      <c r="CC78" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA78" t="inlineStr">
+      <c r="CD78" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB78" t="inlineStr">
+      <c r="CE78" t="inlineStr">
         <is>
           <t>90  секунд</t>
         </is>
       </c>
-      <c r="CC78" t="inlineStr"/>
+      <c r="CF78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -21055,67 +21775,76 @@
       <c r="BL79" t="n">
         <v>77</v>
       </c>
-      <c r="BM79" t="inlineStr">
+      <c r="BM79" t="n">
+        <v>77</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>77</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>77</v>
+      </c>
+      <c r="BP79" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN79" t="n">
+      <c r="BQ79" t="n">
         <v>4</v>
       </c>
-      <c r="BO79" t="n">
+      <c r="BR79" t="n">
         <v>2</v>
       </c>
-      <c r="BP79" t="inlineStr">
+      <c r="BS79" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ79" t="inlineStr">
+      <c r="BT79" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR79" t="inlineStr">
+      <c r="BU79" t="inlineStr">
         <is>
           <t>Жим штанги лежа на наклонной скамье 30 градусов</t>
         </is>
       </c>
-      <c r="BS79" t="inlineStr">
+      <c r="BV79" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT79" t="inlineStr">
+      <c r="BW79" t="inlineStr">
         <is>
           <t>45 кг с повышением</t>
         </is>
       </c>
-      <c r="BU79" t="inlineStr">
+      <c r="BX79" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV79" t="inlineStr"/>
-      <c r="BW79" t="inlineStr"/>
-      <c r="BX79" t="inlineStr"/>
       <c r="BY79" t="inlineStr"/>
-      <c r="BZ79" t="inlineStr">
+      <c r="BZ79" t="inlineStr"/>
+      <c r="CA79" t="inlineStr"/>
+      <c r="CB79" t="inlineStr"/>
+      <c r="CC79" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA79" t="inlineStr">
+      <c r="CD79" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB79" t="inlineStr">
+      <c r="CE79" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC79" t="inlineStr"/>
+      <c r="CF79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -21310,71 +22039,80 @@
       <c r="BL80" t="n">
         <v>78</v>
       </c>
-      <c r="BM80" t="inlineStr">
+      <c r="BM80" t="n">
+        <v>78</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>78</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>78</v>
+      </c>
+      <c r="BP80" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN80" t="n">
+      <c r="BQ80" t="n">
         <v>4</v>
       </c>
-      <c r="BO80" t="n">
+      <c r="BR80" t="n">
         <v>2</v>
       </c>
-      <c r="BP80" t="inlineStr">
+      <c r="BS80" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ80" t="inlineStr">
+      <c r="BT80" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR80" t="inlineStr">
+      <c r="BU80" t="inlineStr">
         <is>
           <t>Отжимания от пола</t>
         </is>
       </c>
-      <c r="BS80" t="inlineStr">
+      <c r="BV80" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT80" t="inlineStr">
+      <c r="BW80" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU80" t="inlineStr">
+      <c r="BX80" t="inlineStr">
         <is>
           <t>Средняя/Широкая постановка рук</t>
         </is>
       </c>
-      <c r="BV80" t="inlineStr"/>
-      <c r="BW80" t="inlineStr"/>
-      <c r="BX80" t="inlineStr"/>
-      <c r="BY80" t="inlineStr">
+      <c r="BY80" t="inlineStr"/>
+      <c r="BZ80" t="inlineStr"/>
+      <c r="CA80" t="inlineStr"/>
+      <c r="CB80" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ80" t="inlineStr">
+      <c r="CC80" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA80" t="inlineStr">
+      <c r="CD80" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB80" t="inlineStr">
+      <c r="CE80" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC80" t="inlineStr"/>
+      <c r="CF80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -21569,83 +22307,92 @@
       <c r="BL81" t="n">
         <v>79</v>
       </c>
-      <c r="BM81" t="inlineStr">
+      <c r="BM81" t="n">
+        <v>79</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>79</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>79</v>
+      </c>
+      <c r="BP81" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN81" t="n">
+      <c r="BQ81" t="n">
         <v>4</v>
       </c>
-      <c r="BO81" t="n">
+      <c r="BR81" t="n">
         <v>2</v>
       </c>
-      <c r="BP81" t="inlineStr">
+      <c r="BS81" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ81" t="inlineStr">
+      <c r="BT81" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="BR81" t="inlineStr">
+      <c r="BU81" t="inlineStr">
         <is>
           <t>Прямые скручивания</t>
         </is>
       </c>
-      <c r="BS81" t="inlineStr">
+      <c r="BV81" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="BT81" t="inlineStr">
+      <c r="BW81" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU81" t="inlineStr">
+      <c r="BX81" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BV81" t="inlineStr">
+      <c r="BY81" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BW81" t="inlineStr">
+      <c r="BZ81" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BX81" t="inlineStr">
+      <c r="CA81" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BY81" t="inlineStr">
+      <c r="CB81" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BZ81" t="inlineStr">
+      <c r="CC81" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA81" t="inlineStr">
+      <c r="CD81" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB81" t="inlineStr">
+      <c r="CE81" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="CC81" t="inlineStr"/>
+      <c r="CF81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -21840,59 +22587,68 @@
       <c r="BL82" t="n">
         <v>80</v>
       </c>
-      <c r="BM82" t="inlineStr">
+      <c r="BM82" t="n">
+        <v>80</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>80</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>80</v>
+      </c>
+      <c r="BP82" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN82" t="n">
+      <c r="BQ82" t="n">
         <v>4</v>
       </c>
-      <c r="BO82" t="n">
+      <c r="BR82" t="n">
         <v>3</v>
       </c>
-      <c r="BP82" t="inlineStr">
+      <c r="BS82" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ82" t="inlineStr">
+      <c r="BT82" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR82" t="inlineStr">
+      <c r="BU82" t="inlineStr">
         <is>
           <t>Тяга штанги к поясу в наклоне стоя</t>
         </is>
       </c>
-      <c r="BS82" t="inlineStr">
+      <c r="BV82" t="inlineStr">
         <is>
           <t>6х3</t>
         </is>
       </c>
-      <c r="BT82" t="inlineStr">
+      <c r="BW82" t="inlineStr">
         <is>
           <t>45 кг с повышением</t>
         </is>
       </c>
-      <c r="BU82" t="inlineStr">
+      <c r="BX82" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV82" t="inlineStr"/>
-      <c r="BW82" t="inlineStr"/>
-      <c r="BX82" t="inlineStr"/>
       <c r="BY82" t="inlineStr"/>
       <c r="BZ82" t="inlineStr"/>
       <c r="CA82" t="inlineStr"/>
-      <c r="CB82" t="inlineStr">
+      <c r="CB82" t="inlineStr"/>
+      <c r="CC82" t="inlineStr"/>
+      <c r="CD82" t="inlineStr"/>
+      <c r="CE82" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC82" t="inlineStr"/>
+      <c r="CF82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -22087,63 +22843,72 @@
       <c r="BL83" t="n">
         <v>81</v>
       </c>
-      <c r="BM83" t="inlineStr">
+      <c r="BM83" t="n">
+        <v>81</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>81</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>81</v>
+      </c>
+      <c r="BP83" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN83" t="n">
+      <c r="BQ83" t="n">
         <v>4</v>
       </c>
-      <c r="BO83" t="n">
+      <c r="BR83" t="n">
         <v>3</v>
       </c>
-      <c r="BP83" t="inlineStr">
+      <c r="BS83" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ83" t="inlineStr">
+      <c r="BT83" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR83" t="inlineStr">
+      <c r="BU83" t="inlineStr">
         <is>
           <t>Подтягивания (с резиной/без)</t>
         </is>
       </c>
-      <c r="BS83" t="inlineStr">
+      <c r="BV83" t="inlineStr">
         <is>
           <t>5х5</t>
         </is>
       </c>
-      <c r="BT83" t="inlineStr">
+      <c r="BW83" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU83" t="inlineStr">
+      <c r="BX83" t="inlineStr">
         <is>
           <t>Средний хват</t>
         </is>
       </c>
-      <c r="BV83" t="inlineStr"/>
-      <c r="BW83" t="inlineStr"/>
-      <c r="BX83" t="inlineStr"/>
       <c r="BY83" t="inlineStr"/>
       <c r="BZ83" t="inlineStr"/>
-      <c r="CA83" t="inlineStr">
+      <c r="CA83" t="inlineStr"/>
+      <c r="CB83" t="inlineStr"/>
+      <c r="CC83" t="inlineStr"/>
+      <c r="CD83" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB83" t="inlineStr">
+      <c r="CE83" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="CC83" t="inlineStr"/>
+      <c r="CF83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -22338,67 +23103,76 @@
       <c r="BL84" t="n">
         <v>82</v>
       </c>
-      <c r="BM84" t="inlineStr">
+      <c r="BM84" t="n">
+        <v>82</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>82</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>82</v>
+      </c>
+      <c r="BP84" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN84" t="n">
+      <c r="BQ84" t="n">
         <v>4</v>
       </c>
-      <c r="BO84" t="n">
+      <c r="BR84" t="n">
         <v>3</v>
       </c>
-      <c r="BP84" t="inlineStr">
+      <c r="BS84" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ84" t="inlineStr">
+      <c r="BT84" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR84" t="inlineStr">
+      <c r="BU84" t="inlineStr">
         <is>
           <t>Горизонтальная рычажная тяга (узко)</t>
         </is>
       </c>
-      <c r="BS84" t="inlineStr">
+      <c r="BV84" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT84" t="inlineStr">
+      <c r="BW84" t="inlineStr">
         <is>
           <t>25-30 кг с повышением</t>
         </is>
       </c>
-      <c r="BU84" t="inlineStr">
+      <c r="BX84" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="BV84" t="inlineStr"/>
-      <c r="BW84" t="inlineStr"/>
-      <c r="BX84" t="inlineStr"/>
       <c r="BY84" t="inlineStr"/>
-      <c r="BZ84" t="inlineStr">
+      <c r="BZ84" t="inlineStr"/>
+      <c r="CA84" t="inlineStr"/>
+      <c r="CB84" t="inlineStr"/>
+      <c r="CC84" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA84" t="inlineStr">
+      <c r="CD84" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB84" t="inlineStr">
+      <c r="CE84" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC84" t="inlineStr"/>
+      <c r="CF84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -22593,67 +23367,76 @@
       <c r="BL85" t="n">
         <v>83</v>
       </c>
-      <c r="BM85" t="inlineStr">
+      <c r="BM85" t="n">
+        <v>83</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>83</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>83</v>
+      </c>
+      <c r="BP85" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN85" t="n">
+      <c r="BQ85" t="n">
         <v>4</v>
       </c>
-      <c r="BO85" t="n">
+      <c r="BR85" t="n">
         <v>3</v>
       </c>
-      <c r="BP85" t="inlineStr">
+      <c r="BS85" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ85" t="inlineStr">
+      <c r="BT85" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR85" t="inlineStr">
+      <c r="BU85" t="inlineStr">
         <is>
           <t>Вертикальная тяга верхнего блока к груди средним хватом в блочном тренажере сидя</t>
         </is>
       </c>
-      <c r="BS85" t="inlineStr">
+      <c r="BV85" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT85" t="inlineStr">
+      <c r="BW85" t="inlineStr">
         <is>
           <t>8-9 плиток с повышением</t>
         </is>
       </c>
-      <c r="BU85" t="inlineStr">
+      <c r="BX85" t="inlineStr">
         <is>
           <t>Подконтрольное опускание веса/Пауза вверху и внизу</t>
         </is>
       </c>
-      <c r="BV85" t="inlineStr"/>
-      <c r="BW85" t="inlineStr"/>
-      <c r="BX85" t="inlineStr"/>
       <c r="BY85" t="inlineStr"/>
-      <c r="BZ85" t="inlineStr">
+      <c r="BZ85" t="inlineStr"/>
+      <c r="CA85" t="inlineStr"/>
+      <c r="CB85" t="inlineStr"/>
+      <c r="CC85" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA85" t="inlineStr">
+      <c r="CD85" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB85" t="inlineStr">
+      <c r="CE85" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="CC85" t="inlineStr"/>
+      <c r="CF85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -22848,67 +23631,76 @@
       <c r="BL86" t="n">
         <v>84</v>
       </c>
-      <c r="BM86" t="inlineStr">
+      <c r="BM86" t="n">
+        <v>84</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>84</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>84</v>
+      </c>
+      <c r="BP86" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN86" t="n">
+      <c r="BQ86" t="n">
         <v>4</v>
       </c>
-      <c r="BO86" t="n">
+      <c r="BR86" t="n">
         <v>3</v>
       </c>
-      <c r="BP86" t="inlineStr">
+      <c r="BS86" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ86" t="inlineStr">
+      <c r="BT86" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR86" t="inlineStr">
+      <c r="BU86" t="inlineStr">
         <is>
           <t>Французский жим штанги лежа за голову (хват снизу чуть уже или на ширине плеч)</t>
         </is>
       </c>
-      <c r="BS86" t="inlineStr">
+      <c r="BV86" t="inlineStr">
         <is>
           <t>4х5</t>
         </is>
       </c>
-      <c r="BT86" t="inlineStr">
+      <c r="BW86" t="inlineStr">
         <is>
           <t>15-20 кг с повышением</t>
         </is>
       </c>
-      <c r="BU86" t="inlineStr">
+      <c r="BX86" t="inlineStr">
         <is>
           <t>Контроль локтей/Исходное положение лежа, штанга вытянута перпендикулярно туловищу, сгибаешь руки в локтевых сутсавах, опуская штангу за голову к темечку/Локти немного расходятся в сторону, параллельны друг другу</t>
         </is>
       </c>
-      <c r="BV86" t="inlineStr"/>
-      <c r="BW86" t="inlineStr"/>
-      <c r="BX86" t="inlineStr"/>
       <c r="BY86" t="inlineStr"/>
-      <c r="BZ86" t="inlineStr">
+      <c r="BZ86" t="inlineStr"/>
+      <c r="CA86" t="inlineStr"/>
+      <c r="CB86" t="inlineStr"/>
+      <c r="CC86" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA86" t="inlineStr">
+      <c r="CD86" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB86" t="inlineStr">
+      <c r="CE86" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC86" t="inlineStr"/>
+      <c r="CF86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -23103,71 +23895,80 @@
       <c r="BL87" t="n">
         <v>85</v>
       </c>
-      <c r="BM87" t="inlineStr">
+      <c r="BM87" t="n">
+        <v>85</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>85</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>85</v>
+      </c>
+      <c r="BP87" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN87" t="n">
+      <c r="BQ87" t="n">
         <v>4</v>
       </c>
-      <c r="BO87" t="n">
+      <c r="BR87" t="n">
         <v>3</v>
       </c>
-      <c r="BP87" t="inlineStr">
+      <c r="BS87" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ87" t="inlineStr">
+      <c r="BT87" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR87" t="inlineStr">
+      <c r="BU87" t="inlineStr">
         <is>
           <t>Сгибание со штангой на бицепс стоя</t>
         </is>
       </c>
-      <c r="BS87" t="inlineStr">
+      <c r="BV87" t="inlineStr">
         <is>
           <t>3х12</t>
         </is>
       </c>
-      <c r="BT87" t="inlineStr">
+      <c r="BW87" t="inlineStr">
         <is>
           <t>20-25 кг</t>
         </is>
       </c>
-      <c r="BU87" t="inlineStr">
+      <c r="BX87" t="inlineStr">
         <is>
           <t>Контроль локтей</t>
         </is>
       </c>
-      <c r="BV87" t="inlineStr"/>
-      <c r="BW87" t="inlineStr"/>
-      <c r="BX87" t="inlineStr"/>
-      <c r="BY87" t="inlineStr">
+      <c r="BY87" t="inlineStr"/>
+      <c r="BZ87" t="inlineStr"/>
+      <c r="CA87" t="inlineStr"/>
+      <c r="CB87" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BZ87" t="inlineStr">
+      <c r="CC87" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA87" t="inlineStr">
+      <c r="CD87" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB87" t="inlineStr">
+      <c r="CE87" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="CC87" t="inlineStr"/>
+      <c r="CF87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -23362,83 +24163,92 @@
       <c r="BL88" t="n">
         <v>86</v>
       </c>
-      <c r="BM88" t="inlineStr">
+      <c r="BM88" t="n">
+        <v>86</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>86</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>86</v>
+      </c>
+      <c r="BP88" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="BN88" t="n">
+      <c r="BQ88" t="n">
         <v>4</v>
       </c>
-      <c r="BO88" t="n">
+      <c r="BR88" t="n">
         <v>3</v>
       </c>
-      <c r="BP88" t="inlineStr">
+      <c r="BS88" t="inlineStr">
         <is>
           <t>3-5/90-85%</t>
         </is>
       </c>
-      <c r="BQ88" t="inlineStr">
+      <c r="BT88" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="BR88" t="inlineStr">
+      <c r="BU88" t="inlineStr">
         <is>
           <t>Прямые скручивания</t>
         </is>
       </c>
-      <c r="BS88" t="inlineStr">
+      <c r="BV88" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="BT88" t="inlineStr">
+      <c r="BW88" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BU88" t="inlineStr">
+      <c r="BX88" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="BV88" t="inlineStr">
+      <c r="BY88" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BW88" t="inlineStr">
+      <c r="BZ88" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BX88" t="inlineStr">
+      <c r="CA88" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BY88" t="inlineStr">
+      <c r="CB88" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="BZ88" t="inlineStr">
+      <c r="CC88" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CA88" t="inlineStr">
+      <c r="CD88" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="CB88" t="inlineStr">
+      <c r="CE88" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="CC88" t="inlineStr"/>
+      <c r="CF88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
